--- a/cet_colg_data.xlsx
+++ b/cet_colg_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mithr\Desktop\3rd Sem\DTL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mithr\Desktop\College Counselling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A55604E-FCA2-4154-91F9-261A524A69E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB38ABE4-A0A1-4B5E-8C70-7A0DD4CB0668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -358,9 +358,6 @@
     <t>BO</t>
   </si>
   <si>
-    <t>B TECH IN COMPUTER SCIENCE AND</t>
-  </si>
-  <si>
     <t>BW</t>
   </si>
   <si>
@@ -701,6 +698,9 @@
   </si>
   <si>
     <t>College Name</t>
+  </si>
+  <si>
+    <t>B TECH IN COMPUTER SCIENCE</t>
   </si>
 </sst>
 </file>
@@ -1136,8 +1136,8 @@
   </sheetPr>
   <dimension ref="A1:AJ342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="C343" sqref="C343"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -9890,10 +9890,10 @@
         <v>103</v>
       </c>
       <c r="D99" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="F99" s="6">
         <v>4030</v>
@@ -9979,10 +9979,10 @@
         <v>103</v>
       </c>
       <c r="D100" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F100" s="11" t="s">
         <v>35</v>
@@ -10059,13 +10059,13 @@
     </row>
     <row r="101" spans="1:29" ht="14.4">
       <c r="A101" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>31</v>
@@ -10148,13 +10148,13 @@
     </row>
     <row r="102" spans="1:29" ht="14.4">
       <c r="A102" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>36</v>
@@ -10237,13 +10237,13 @@
     </row>
     <row r="103" spans="1:29" ht="14.4">
       <c r="A103" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>38</v>
@@ -10326,13 +10326,13 @@
     </row>
     <row r="104" spans="1:29" ht="14.4">
       <c r="A104" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>72</v>
@@ -10415,13 +10415,13 @@
     </row>
     <row r="105" spans="1:29" ht="14.4">
       <c r="A105" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>40</v>
@@ -10504,13 +10504,13 @@
     </row>
     <row r="106" spans="1:29" ht="14.4">
       <c r="A106" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>42</v>
@@ -10593,13 +10593,13 @@
     </row>
     <row r="107" spans="1:29" ht="14.4">
       <c r="A107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>44</v>
@@ -10682,13 +10682,13 @@
     </row>
     <row r="108" spans="1:29" ht="14.4">
       <c r="A108" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>46</v>
@@ -10771,13 +10771,13 @@
     </row>
     <row r="109" spans="1:29" ht="14.4">
       <c r="A109" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>96</v>
@@ -10860,13 +10860,13 @@
     </row>
     <row r="110" spans="1:29" ht="14.4">
       <c r="A110" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>80</v>
@@ -10949,13 +10949,13 @@
     </row>
     <row r="111" spans="1:29" ht="14.4">
       <c r="A111" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>86</v>
@@ -11038,13 +11038,13 @@
     </row>
     <row r="112" spans="1:29" ht="14.4">
       <c r="A112" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>68</v>
@@ -11127,13 +11127,13 @@
     </row>
     <row r="113" spans="1:29" ht="14.4">
       <c r="A113" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>92</v>
@@ -11216,13 +11216,13 @@
     </row>
     <row r="114" spans="1:29" ht="14.4">
       <c r="A114" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>36</v>
@@ -11305,19 +11305,19 @@
     </row>
     <row r="115" spans="1:29" ht="14.4">
       <c r="A115" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="E115" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="F115" s="11" t="s">
         <v>35</v>
@@ -11394,13 +11394,13 @@
     </row>
     <row r="116" spans="1:29" ht="14.4">
       <c r="A116" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>38</v>
@@ -11483,13 +11483,13 @@
     </row>
     <row r="117" spans="1:29" ht="14.4">
       <c r="A117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>40</v>
@@ -11572,13 +11572,13 @@
     </row>
     <row r="118" spans="1:29" ht="14.4">
       <c r="A118" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>44</v>
@@ -11661,13 +11661,13 @@
     </row>
     <row r="119" spans="1:29" ht="14.4">
       <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>46</v>
@@ -11750,13 +11750,13 @@
     </row>
     <row r="120" spans="1:29" ht="14.4">
       <c r="A120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D120" s="13" t="s">
         <v>76</v>
@@ -11839,13 +11839,13 @@
     </row>
     <row r="121" spans="1:29" ht="14.4">
       <c r="A121" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>80</v>
@@ -11928,13 +11928,13 @@
     </row>
     <row r="122" spans="1:29" ht="14.4">
       <c r="A122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>66</v>
@@ -12017,13 +12017,13 @@
     </row>
     <row r="123" spans="1:29" ht="14.4">
       <c r="A123" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>68</v>
@@ -12106,13 +12106,13 @@
     </row>
     <row r="124" spans="1:29" ht="14.4">
       <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>36</v>
@@ -12195,13 +12195,13 @@
     </row>
     <row r="125" spans="1:29" ht="14.4">
       <c r="A125" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>70</v>
@@ -12284,13 +12284,13 @@
     </row>
     <row r="126" spans="1:29" ht="14.4">
       <c r="A126" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>38</v>
@@ -12373,13 +12373,13 @@
     </row>
     <row r="127" spans="1:29" ht="14.4">
       <c r="A127" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>40</v>
@@ -12462,13 +12462,13 @@
     </row>
     <row r="128" spans="1:29" ht="14.4">
       <c r="A128" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>42</v>
@@ -12551,13 +12551,13 @@
     </row>
     <row r="129" spans="1:29" ht="14.4">
       <c r="A129" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>60</v>
@@ -12640,13 +12640,13 @@
     </row>
     <row r="130" spans="1:29" ht="14.4">
       <c r="A130" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>62</v>
@@ -12729,13 +12729,13 @@
     </row>
     <row r="131" spans="1:29" ht="14.4">
       <c r="A131" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>44</v>
@@ -12818,13 +12818,13 @@
     </row>
     <row r="132" spans="1:29" ht="14.4">
       <c r="A132" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>56</v>
@@ -12907,13 +12907,13 @@
     </row>
     <row r="133" spans="1:29" ht="14.4">
       <c r="A133" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>46</v>
@@ -12996,13 +12996,13 @@
     </row>
     <row r="134" spans="1:29" ht="14.4">
       <c r="A134" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>36</v>
@@ -13085,13 +13085,13 @@
     </row>
     <row r="135" spans="1:29" ht="14.4">
       <c r="A135" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>38</v>
@@ -13174,13 +13174,13 @@
     </row>
     <row r="136" spans="1:29" ht="14.4">
       <c r="A136" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>40</v>
@@ -13263,13 +13263,13 @@
     </row>
     <row r="137" spans="1:29" ht="14.4">
       <c r="A137" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>42</v>
@@ -13352,13 +13352,13 @@
     </row>
     <row r="138" spans="1:29" ht="14.4">
       <c r="A138" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>60</v>
@@ -13441,19 +13441,19 @@
     </row>
     <row r="139" spans="1:29" ht="14.4">
       <c r="A139" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="D139" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="E139" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="F139" s="22">
         <v>31749</v>
@@ -13530,19 +13530,19 @@
     </row>
     <row r="140" spans="1:29" ht="14.4">
       <c r="A140" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="D140" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E140" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="F140" s="6">
         <v>76888</v>
@@ -13619,19 +13619,19 @@
     </row>
     <row r="141" spans="1:29" ht="14.4">
       <c r="A141" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="D141" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E141" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="F141" s="11">
         <v>100802</v>
@@ -13708,13 +13708,13 @@
     </row>
     <row r="142" spans="1:29" ht="14.4">
       <c r="A142" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>46</v>
@@ -13797,19 +13797,19 @@
     </row>
     <row r="143" spans="1:29" ht="14.4">
       <c r="A143" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="D143" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="F143" s="11">
         <v>140563</v>
@@ -13886,13 +13886,13 @@
     </row>
     <row r="144" spans="1:29" ht="14.4">
       <c r="A144" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>140</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>88</v>
@@ -13975,13 +13975,13 @@
     </row>
     <row r="145" spans="1:29" ht="14.4">
       <c r="A145" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>140</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>36</v>
@@ -14064,13 +14064,13 @@
     </row>
     <row r="146" spans="1:29" ht="14.4">
       <c r="A146" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>140</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>40</v>
@@ -14153,13 +14153,13 @@
     </row>
     <row r="147" spans="1:29" ht="14.4">
       <c r="A147" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>140</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>42</v>
@@ -14242,19 +14242,19 @@
     </row>
     <row r="148" spans="1:29" ht="14.4">
       <c r="A148" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C148" s="11" t="s">
-        <v>140</v>
-      </c>
       <c r="D148" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E148" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="E148" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="F148" s="11" t="s">
         <v>35</v>
@@ -14331,13 +14331,13 @@
     </row>
     <row r="149" spans="1:29" ht="14.4">
       <c r="A149" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>140</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>46</v>
@@ -14420,13 +14420,13 @@
     </row>
     <row r="150" spans="1:29" ht="14.4">
       <c r="A150" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>36</v>
@@ -14509,13 +14509,13 @@
     </row>
     <row r="151" spans="1:29" ht="14.4">
       <c r="A151" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>40</v>
@@ -14598,13 +14598,13 @@
     </row>
     <row r="152" spans="1:29" ht="14.4">
       <c r="A152" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>42</v>
@@ -14687,13 +14687,13 @@
     </row>
     <row r="153" spans="1:29" ht="14.4">
       <c r="A153" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>46</v>
@@ -14776,13 +14776,13 @@
     </row>
     <row r="154" spans="1:29" ht="14.4">
       <c r="A154" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B154" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="C154" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>36</v>
@@ -14865,13 +14865,13 @@
     </row>
     <row r="155" spans="1:29" ht="14.4">
       <c r="A155" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B155" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="C155" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>38</v>
@@ -14954,13 +14954,13 @@
     </row>
     <row r="156" spans="1:29" ht="14.4">
       <c r="A156" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B156" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="C156" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>40</v>
@@ -15043,13 +15043,13 @@
     </row>
     <row r="157" spans="1:29" ht="14.4">
       <c r="A157" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B157" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="C157" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>42</v>
@@ -15132,19 +15132,19 @@
     </row>
     <row r="158" spans="1:29" ht="14.4">
       <c r="A158" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B158" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="C158" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C158" s="11" t="s">
-        <v>146</v>
-      </c>
       <c r="D158" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E158" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="F158" s="11">
         <v>163696</v>
@@ -15221,13 +15221,13 @@
     </row>
     <row r="159" spans="1:29" ht="14.4">
       <c r="A159" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B159" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="C159" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>46</v>
@@ -15310,13 +15310,13 @@
     </row>
     <row r="160" spans="1:29" ht="14.4">
       <c r="A160" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="C160" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>31</v>
@@ -15399,13 +15399,13 @@
     </row>
     <row r="161" spans="1:29" ht="14.4">
       <c r="A161" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="C161" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>36</v>
@@ -15488,13 +15488,13 @@
     </row>
     <row r="162" spans="1:29" ht="14.4">
       <c r="A162" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="C162" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>70</v>
@@ -15577,13 +15577,13 @@
     </row>
     <row r="163" spans="1:29" ht="14.4">
       <c r="A163" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="C163" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>38</v>
@@ -15666,13 +15666,13 @@
     </row>
     <row r="164" spans="1:29" ht="14.4">
       <c r="A164" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="C164" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>40</v>
@@ -15755,13 +15755,13 @@
     </row>
     <row r="165" spans="1:29" ht="14.4">
       <c r="A165" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="C165" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>42</v>
@@ -15844,13 +15844,13 @@
     </row>
     <row r="166" spans="1:29" ht="14.4">
       <c r="A166" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="C166" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>44</v>
@@ -15933,13 +15933,13 @@
     </row>
     <row r="167" spans="1:29" ht="14.4">
       <c r="A167" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="C167" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>46</v>
@@ -16022,13 +16022,13 @@
     </row>
     <row r="168" spans="1:29" ht="14.4">
       <c r="A168" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="C168" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>36</v>
@@ -16111,13 +16111,13 @@
     </row>
     <row r="169" spans="1:29" ht="14.4">
       <c r="A169" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="C169" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>38</v>
@@ -16200,13 +16200,13 @@
     </row>
     <row r="170" spans="1:29" ht="14.4">
       <c r="A170" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="C170" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>40</v>
@@ -16289,13 +16289,13 @@
     </row>
     <row r="171" spans="1:29" ht="14.4">
       <c r="A171" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="C171" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>42</v>
@@ -16378,13 +16378,13 @@
     </row>
     <row r="172" spans="1:29" ht="14.4">
       <c r="A172" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="C172" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>44</v>
@@ -16467,13 +16467,13 @@
     </row>
     <row r="173" spans="1:29" ht="14.4">
       <c r="A173" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B173" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="C173" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>46</v>
@@ -16556,13 +16556,13 @@
     </row>
     <row r="174" spans="1:29" ht="14.4">
       <c r="A174" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>86</v>
@@ -16645,13 +16645,13 @@
     </row>
     <row r="175" spans="1:29" ht="14.4">
       <c r="A175" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>31</v>
@@ -16734,13 +16734,13 @@
     </row>
     <row r="176" spans="1:29" ht="14.4">
       <c r="A176" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>92</v>
@@ -16823,13 +16823,13 @@
     </row>
     <row r="177" spans="1:29" ht="14.4">
       <c r="A177" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>36</v>
@@ -16912,13 +16912,13 @@
     </row>
     <row r="178" spans="1:29" ht="14.4">
       <c r="A178" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D178" s="8" t="s">
         <v>70</v>
@@ -17001,13 +17001,13 @@
     </row>
     <row r="179" spans="1:29" ht="14.4">
       <c r="A179" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>38</v>
@@ -17090,13 +17090,13 @@
     </row>
     <row r="180" spans="1:29" ht="14.4">
       <c r="A180" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>74</v>
@@ -17179,19 +17179,19 @@
     </row>
     <row r="181" spans="1:29" ht="14.4">
       <c r="A181" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C181" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D181" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D181" s="8" t="s">
+      <c r="E181" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="E181" s="9" t="s">
-        <v>156</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>35</v>
@@ -17268,13 +17268,13 @@
     </row>
     <row r="182" spans="1:29" ht="14.4">
       <c r="A182" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>40</v>
@@ -17357,13 +17357,13 @@
     </row>
     <row r="183" spans="1:29" ht="14.4">
       <c r="A183" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>42</v>
@@ -17446,13 +17446,13 @@
     </row>
     <row r="184" spans="1:29" ht="14.4">
       <c r="A184" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D184" s="8" t="s">
         <v>100</v>
@@ -17535,13 +17535,13 @@
     </row>
     <row r="185" spans="1:29" ht="14.4">
       <c r="A185" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>44</v>
@@ -17624,13 +17624,13 @@
     </row>
     <row r="186" spans="1:29" ht="14.4">
       <c r="A186" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>46</v>
@@ -17713,19 +17713,19 @@
     </row>
     <row r="187" spans="1:29" ht="14.4">
       <c r="A187" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D187" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E187" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="E187" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>35</v>
@@ -17802,13 +17802,13 @@
     </row>
     <row r="188" spans="1:29" ht="14.4">
       <c r="A188" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D188" s="13" t="s">
         <v>76</v>
@@ -17891,13 +17891,13 @@
     </row>
     <row r="189" spans="1:29" ht="14.4">
       <c r="A189" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>31</v>
@@ -17980,16 +17980,16 @@
     </row>
     <row r="190" spans="1:29" ht="14.4">
       <c r="A190" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C190" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D190" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>67</v>
@@ -18069,13 +18069,13 @@
     </row>
     <row r="191" spans="1:29" ht="14.4">
       <c r="A191" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>36</v>
@@ -18158,13 +18158,13 @@
     </row>
     <row r="192" spans="1:29" ht="14.4">
       <c r="A192" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>38</v>
@@ -18247,13 +18247,13 @@
     </row>
     <row r="193" spans="1:29" ht="14.4">
       <c r="A193" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D193" s="8" t="s">
         <v>74</v>
@@ -18336,13 +18336,13 @@
     </row>
     <row r="194" spans="1:29" ht="14.4">
       <c r="A194" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>40</v>
@@ -18425,13 +18425,13 @@
     </row>
     <row r="195" spans="1:29" ht="14.4">
       <c r="A195" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D195" s="8" t="s">
         <v>42</v>
@@ -18514,19 +18514,19 @@
     </row>
     <row r="196" spans="1:29" ht="14.4">
       <c r="A196" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D196" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E196" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="E196" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="F196" s="11" t="s">
         <v>35</v>
@@ -18603,13 +18603,13 @@
     </row>
     <row r="197" spans="1:29" ht="14.4">
       <c r="A197" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D197" s="8" t="s">
         <v>94</v>
@@ -18692,13 +18692,13 @@
     </row>
     <row r="198" spans="1:29" ht="14.4">
       <c r="A198" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>44</v>
@@ -18781,13 +18781,13 @@
     </row>
     <row r="199" spans="1:29" ht="14.4">
       <c r="A199" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>46</v>
@@ -18870,13 +18870,13 @@
     </row>
     <row r="200" spans="1:29" ht="14.4">
       <c r="A200" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D200" s="13" t="s">
         <v>96</v>
@@ -18959,19 +18959,19 @@
     </row>
     <row r="201" spans="1:29" ht="14.4">
       <c r="A201" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D201" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E201" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="E201" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="F201" s="6">
         <v>60832</v>
@@ -19048,13 +19048,13 @@
     </row>
     <row r="202" spans="1:29" ht="14.4">
       <c r="A202" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>68</v>
@@ -19137,13 +19137,13 @@
     </row>
     <row r="203" spans="1:29" ht="14.4">
       <c r="A203" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>36</v>
@@ -19226,13 +19226,13 @@
     </row>
     <row r="204" spans="1:29" ht="14.4">
       <c r="A204" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>38</v>
@@ -19315,13 +19315,13 @@
     </row>
     <row r="205" spans="1:29" ht="14.4">
       <c r="A205" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>40</v>
@@ -19404,13 +19404,13 @@
     </row>
     <row r="206" spans="1:29" ht="14.4">
       <c r="A206" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D206" s="8" t="s">
         <v>42</v>
@@ -19493,13 +19493,13 @@
     </row>
     <row r="207" spans="1:29" ht="14.4">
       <c r="A207" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>46</v>
@@ -19582,19 +19582,19 @@
     </row>
     <row r="208" spans="1:29" ht="14.4">
       <c r="A208" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="D208" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D208" s="5" t="s">
+      <c r="E208" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>35</v>
@@ -19671,13 +19671,13 @@
     </row>
     <row r="209" spans="1:29" ht="14.4">
       <c r="A209" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C209" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>31</v>
@@ -19760,19 +19760,19 @@
     </row>
     <row r="210" spans="1:29" ht="14.4">
       <c r="A210" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C210" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C210" s="6" t="s">
+      <c r="D210" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D210" s="4" t="s">
+      <c r="E210" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="F210" s="11" t="s">
         <v>35</v>
@@ -19849,13 +19849,13 @@
     </row>
     <row r="211" spans="1:29" ht="14.4">
       <c r="A211" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C211" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>36</v>
@@ -19938,13 +19938,13 @@
     </row>
     <row r="212" spans="1:29" ht="14.4">
       <c r="A212" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C212" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>38</v>
@@ -20027,13 +20027,13 @@
     </row>
     <row r="213" spans="1:29" ht="14.4">
       <c r="A213" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C213" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D213" s="8" t="s">
         <v>72</v>
@@ -20116,13 +20116,13 @@
     </row>
     <row r="214" spans="1:29" ht="14.4">
       <c r="A214" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C214" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D214" s="8" t="s">
         <v>74</v>
@@ -20205,13 +20205,13 @@
     </row>
     <row r="215" spans="1:29" ht="14.4">
       <c r="A215" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>40</v>
@@ -20294,13 +20294,13 @@
     </row>
     <row r="216" spans="1:29" ht="14.4">
       <c r="A216" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C216" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D216" s="8" t="s">
         <v>42</v>
@@ -20383,13 +20383,13 @@
     </row>
     <row r="217" spans="1:29" ht="14.4">
       <c r="A217" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C217" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D217" s="8" t="s">
         <v>62</v>
@@ -20472,13 +20472,13 @@
     </row>
     <row r="218" spans="1:29" ht="14.4">
       <c r="A218" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C218" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>44</v>
@@ -20561,13 +20561,13 @@
     </row>
     <row r="219" spans="1:29" ht="14.4">
       <c r="A219" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C219" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>46</v>
@@ -20650,13 +20650,13 @@
     </row>
     <row r="220" spans="1:29" ht="14.4">
       <c r="A220" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C220" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D220" s="13" t="s">
         <v>96</v>
@@ -20739,13 +20739,13 @@
     </row>
     <row r="221" spans="1:29" ht="14.4">
       <c r="A221" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="C221" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>31</v>
@@ -20828,13 +20828,13 @@
     </row>
     <row r="222" spans="1:29" ht="14.4">
       <c r="A222" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="C222" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>36</v>
@@ -20917,13 +20917,13 @@
     </row>
     <row r="223" spans="1:29" ht="14.4">
       <c r="A223" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="C223" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>38</v>
@@ -21006,13 +21006,13 @@
     </row>
     <row r="224" spans="1:29" ht="14.4">
       <c r="A224" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="C224" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>40</v>
@@ -21095,13 +21095,13 @@
     </row>
     <row r="225" spans="1:29" ht="14.4">
       <c r="A225" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="C225" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>44</v>
@@ -21184,13 +21184,13 @@
     </row>
     <row r="226" spans="1:29" ht="14.4">
       <c r="A226" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="C226" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>46</v>
@@ -21273,13 +21273,13 @@
     </row>
     <row r="227" spans="1:29" ht="14.4">
       <c r="A227" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C227" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C227" s="11" t="s">
-        <v>179</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>36</v>
@@ -21362,13 +21362,13 @@
     </row>
     <row r="228" spans="1:29" ht="14.4">
       <c r="A228" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C228" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C228" s="11" t="s">
-        <v>179</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>40</v>
@@ -21451,13 +21451,13 @@
     </row>
     <row r="229" spans="1:29" ht="14.4">
       <c r="A229" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C229" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C229" s="11" t="s">
-        <v>179</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>46</v>
@@ -21540,13 +21540,13 @@
     </row>
     <row r="230" spans="1:29" ht="14.4">
       <c r="A230" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="C230" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="D230" s="8" t="s">
         <v>92</v>
@@ -21629,13 +21629,13 @@
     </row>
     <row r="231" spans="1:29" ht="14.4">
       <c r="A231" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C231" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>36</v>
@@ -21718,13 +21718,13 @@
     </row>
     <row r="232" spans="1:29" ht="14.4">
       <c r="A232" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="C232" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>38</v>
@@ -21807,19 +21807,19 @@
     </row>
     <row r="233" spans="1:29" ht="14.4">
       <c r="A233" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="C233" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C233" s="6" t="s">
+      <c r="D233" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D233" s="4" t="s">
+      <c r="E233" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="E233" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="F233" s="6" t="s">
         <v>35</v>
@@ -21896,13 +21896,13 @@
     </row>
     <row r="234" spans="1:29" ht="14.4">
       <c r="A234" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="C234" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>40</v>
@@ -21985,13 +21985,13 @@
     </row>
     <row r="235" spans="1:29" ht="14.4">
       <c r="A235" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="C235" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="D235" s="8" t="s">
         <v>42</v>
@@ -22074,13 +22074,13 @@
     </row>
     <row r="236" spans="1:29" ht="14.4">
       <c r="A236" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>46</v>
@@ -22163,13 +22163,13 @@
     </row>
     <row r="237" spans="1:29" ht="14.4">
       <c r="A237" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="C237" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>38</v>
@@ -22252,13 +22252,13 @@
     </row>
     <row r="238" spans="1:29" ht="14.4">
       <c r="A238" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="C238" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>40</v>
@@ -22341,13 +22341,13 @@
     </row>
     <row r="239" spans="1:29" ht="14.4">
       <c r="A239" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B239" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="C239" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>46</v>
@@ -22430,13 +22430,13 @@
     </row>
     <row r="240" spans="1:29" ht="14.4">
       <c r="A240" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="C240" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="D240" s="13" t="s">
         <v>96</v>
@@ -22519,13 +22519,13 @@
     </row>
     <row r="241" spans="1:29" ht="14.4">
       <c r="A241" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B241" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="C241" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>31</v>
@@ -22608,13 +22608,13 @@
     </row>
     <row r="242" spans="1:29" ht="14.4">
       <c r="A242" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B242" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="C242" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>36</v>
@@ -22697,13 +22697,13 @@
     </row>
     <row r="243" spans="1:29" ht="14.4">
       <c r="A243" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B243" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="C243" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>38</v>
@@ -22786,13 +22786,13 @@
     </row>
     <row r="244" spans="1:29" ht="14.4">
       <c r="A244" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B244" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="C244" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>40</v>
@@ -22875,13 +22875,13 @@
     </row>
     <row r="245" spans="1:29" ht="14.4">
       <c r="A245" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B245" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="C245" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>46</v>
@@ -22964,13 +22964,13 @@
     </row>
     <row r="246" spans="1:29" ht="14.4">
       <c r="A246" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B246" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="C246" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="D246" s="14" t="s">
         <v>52</v>
@@ -23053,13 +23053,13 @@
     </row>
     <row r="247" spans="1:29" ht="14.4">
       <c r="A247" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="C247" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>68</v>
@@ -23142,13 +23142,13 @@
     </row>
     <row r="248" spans="1:29" ht="14.4">
       <c r="A248" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="C248" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>36</v>
@@ -23231,13 +23231,13 @@
     </row>
     <row r="249" spans="1:29" ht="14.4">
       <c r="A249" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="C249" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>38</v>
@@ -23320,13 +23320,13 @@
     </row>
     <row r="250" spans="1:29" ht="14.4">
       <c r="A250" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="C250" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D250" s="8" t="s">
         <v>74</v>
@@ -23409,13 +23409,13 @@
     </row>
     <row r="251" spans="1:29" ht="14.4">
       <c r="A251" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="C251" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>40</v>
@@ -23498,13 +23498,13 @@
     </row>
     <row r="252" spans="1:29" ht="14.4">
       <c r="A252" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="C252" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D252" s="8" t="s">
         <v>42</v>
@@ -23587,13 +23587,13 @@
     </row>
     <row r="253" spans="1:29" ht="14.4">
       <c r="A253" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="C253" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>46</v>
@@ -23676,13 +23676,13 @@
     </row>
     <row r="254" spans="1:29" ht="14.4">
       <c r="A254" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="C254" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D254" s="13" t="s">
         <v>96</v>
@@ -23765,19 +23765,19 @@
     </row>
     <row r="255" spans="1:29" ht="14.4">
       <c r="A255" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C255" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B255" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>195</v>
-      </c>
       <c r="D255" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E255" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="E255" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="F255" s="6" t="s">
         <v>35</v>
@@ -23854,13 +23854,13 @@
     </row>
     <row r="256" spans="1:29" ht="14.4">
       <c r="A256" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C256" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>36</v>
@@ -23943,19 +23943,19 @@
     </row>
     <row r="257" spans="1:29" ht="14.4">
       <c r="A257" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C257" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B257" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C257" s="6" t="s">
+      <c r="D257" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D257" s="8" t="s">
+      <c r="E257" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="E257" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="F257" s="6" t="s">
         <v>35</v>
@@ -24032,13 +24032,13 @@
     </row>
     <row r="258" spans="1:29" ht="14.4">
       <c r="A258" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C258" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="D258" s="8" t="s">
         <v>70</v>
@@ -24121,13 +24121,13 @@
     </row>
     <row r="259" spans="1:29" ht="14.4">
       <c r="A259" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C259" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>38</v>
@@ -24210,13 +24210,13 @@
     </row>
     <row r="260" spans="1:29" ht="14.4">
       <c r="A260" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C260" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="B260" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>40</v>
@@ -24299,13 +24299,13 @@
     </row>
     <row r="261" spans="1:29" ht="14.4">
       <c r="A261" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C261" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="D261" s="8" t="s">
         <v>42</v>
@@ -24388,13 +24388,13 @@
     </row>
     <row r="262" spans="1:29" ht="14.4">
       <c r="A262" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C262" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="B262" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>46</v>
@@ -24477,13 +24477,13 @@
     </row>
     <row r="263" spans="1:29" ht="14.4">
       <c r="A263" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C263" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="B263" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C263" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="D263" s="8" t="s">
         <v>86</v>
@@ -24566,13 +24566,13 @@
     </row>
     <row r="264" spans="1:29" ht="14.4">
       <c r="A264" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C264" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="B264" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>68</v>
@@ -24655,13 +24655,13 @@
     </row>
     <row r="265" spans="1:29" ht="14.4">
       <c r="A265" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C265" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="B265" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>36</v>
@@ -24744,13 +24744,13 @@
     </row>
     <row r="266" spans="1:29" ht="14.4">
       <c r="A266" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C266" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>38</v>
@@ -24833,13 +24833,13 @@
     </row>
     <row r="267" spans="1:29" ht="14.4">
       <c r="A267" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C267" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>40</v>
@@ -24922,13 +24922,13 @@
     </row>
     <row r="268" spans="1:29" ht="14.4">
       <c r="A268" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C268" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="B268" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="D268" s="8" t="s">
         <v>42</v>
@@ -25011,13 +25011,13 @@
     </row>
     <row r="269" spans="1:29" ht="14.4">
       <c r="A269" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C269" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>44</v>
@@ -25100,13 +25100,13 @@
     </row>
     <row r="270" spans="1:29" ht="14.4">
       <c r="A270" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C270" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C270" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>46</v>
@@ -25189,13 +25189,13 @@
     </row>
     <row r="271" spans="1:29" ht="14.4">
       <c r="A271" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B271" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="C271" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="C271" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="D271" s="8" t="s">
         <v>33</v>
@@ -25278,13 +25278,13 @@
     </row>
     <row r="272" spans="1:29" ht="14.4">
       <c r="A272" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B272" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B272" s="6" t="s">
+      <c r="C272" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="C272" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>68</v>
@@ -25367,13 +25367,13 @@
     </row>
     <row r="273" spans="1:29" ht="14.4">
       <c r="A273" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B273" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B273" s="6" t="s">
+      <c r="C273" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="C273" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="D273" s="4" t="s">
         <v>36</v>
@@ -25456,13 +25456,13 @@
     </row>
     <row r="274" spans="1:29" ht="14.4">
       <c r="A274" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B274" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B274" s="6" t="s">
+      <c r="C274" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="D274" s="4" t="s">
         <v>38</v>
@@ -25545,13 +25545,13 @@
     </row>
     <row r="275" spans="1:29" ht="14.4">
       <c r="A275" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="C275" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="D275" s="8" t="s">
         <v>74</v>
@@ -25634,13 +25634,13 @@
     </row>
     <row r="276" spans="1:29" ht="14.4">
       <c r="A276" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B276" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B276" s="6" t="s">
+      <c r="C276" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>40</v>
@@ -25723,13 +25723,13 @@
     </row>
     <row r="277" spans="1:29" ht="14.4">
       <c r="A277" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B277" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B277" s="6" t="s">
+      <c r="C277" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="D277" s="8" t="s">
         <v>42</v>
@@ -25812,13 +25812,13 @@
     </row>
     <row r="278" spans="1:29" ht="14.4">
       <c r="A278" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B278" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B278" s="6" t="s">
+      <c r="C278" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>44</v>
@@ -25901,13 +25901,13 @@
     </row>
     <row r="279" spans="1:29" ht="14.4">
       <c r="A279" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B279" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B279" s="6" t="s">
+      <c r="C279" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>46</v>
@@ -25990,13 +25990,13 @@
     </row>
     <row r="280" spans="1:29" ht="14.4">
       <c r="A280" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B280" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B280" s="11" t="s">
+      <c r="C280" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>38</v>
@@ -26079,13 +26079,13 @@
     </row>
     <row r="281" spans="1:29" ht="14.4">
       <c r="A281" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B281" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B281" s="11" t="s">
+      <c r="C281" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>40</v>
@@ -26168,13 +26168,13 @@
     </row>
     <row r="282" spans="1:29" ht="14.4">
       <c r="A282" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B282" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B282" s="11" t="s">
+      <c r="C282" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D282" s="8" t="s">
         <v>42</v>
@@ -26257,13 +26257,13 @@
     </row>
     <row r="283" spans="1:29" ht="14.4">
       <c r="A283" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B283" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B283" s="11" t="s">
+      <c r="C283" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>46</v>
@@ -26346,13 +26346,13 @@
     </row>
     <row r="284" spans="1:29" ht="14.4">
       <c r="A284" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B284" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B284" s="11" t="s">
+      <c r="C284" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="C284" s="11" t="s">
-        <v>208</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>36</v>
@@ -26435,13 +26435,13 @@
     </row>
     <row r="285" spans="1:29" ht="14.4">
       <c r="A285" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B285" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B285" s="11" t="s">
+      <c r="C285" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="C285" s="11" t="s">
-        <v>208</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>40</v>
@@ -26524,13 +26524,13 @@
     </row>
     <row r="286" spans="1:29" ht="14.4">
       <c r="A286" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B286" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B286" s="11" t="s">
+      <c r="C286" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="C286" s="11" t="s">
-        <v>208</v>
       </c>
       <c r="D286" s="8" t="s">
         <v>42</v>
@@ -26613,19 +26613,19 @@
     </row>
     <row r="287" spans="1:29" ht="14.4">
       <c r="A287" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B287" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B287" s="11" t="s">
+      <c r="C287" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C287" s="11" t="s">
-        <v>208</v>
-      </c>
       <c r="D287" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E287" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="E287" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="F287" s="6">
         <v>186145</v>
@@ -26702,13 +26702,13 @@
     </row>
     <row r="288" spans="1:29" ht="14.4">
       <c r="A288" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B288" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B288" s="11" t="s">
+      <c r="C288" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="C288" s="11" t="s">
-        <v>208</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>46</v>
@@ -26791,13 +26791,13 @@
     </row>
     <row r="289" spans="1:29" ht="14.4">
       <c r="A289" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B289" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="C289" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="C289" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="D289" s="8" t="s">
         <v>86</v>
@@ -26880,13 +26880,13 @@
     </row>
     <row r="290" spans="1:29" ht="14.4">
       <c r="A290" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B290" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="C290" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="C290" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>36</v>
@@ -26969,13 +26969,13 @@
     </row>
     <row r="291" spans="1:29" ht="14.4">
       <c r="A291" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B291" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B291" s="6" t="s">
+      <c r="C291" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="C291" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>38</v>
@@ -27058,13 +27058,13 @@
     </row>
     <row r="292" spans="1:29" ht="14.4">
       <c r="A292" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B292" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="C292" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="C292" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>40</v>
@@ -27147,13 +27147,13 @@
     </row>
     <row r="293" spans="1:29" ht="14.4">
       <c r="A293" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B293" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B293" s="6" t="s">
+      <c r="C293" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="C293" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>46</v>
@@ -27236,13 +27236,13 @@
     </row>
     <row r="294" spans="1:29" ht="14.4">
       <c r="A294" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="C294" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="C294" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>31</v>
@@ -27325,13 +27325,13 @@
     </row>
     <row r="295" spans="1:29" ht="14.4">
       <c r="A295" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="C295" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="C295" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="D295" s="4" t="s">
         <v>68</v>
@@ -27414,13 +27414,13 @@
     </row>
     <row r="296" spans="1:29" ht="14.4">
       <c r="A296" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="C296" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="C296" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="D296" s="4" t="s">
         <v>36</v>
@@ -27503,13 +27503,13 @@
     </row>
     <row r="297" spans="1:29" ht="14.4">
       <c r="A297" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="C297" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="C297" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="D297" s="4" t="s">
         <v>38</v>
@@ -27592,13 +27592,13 @@
     </row>
     <row r="298" spans="1:29" ht="14.4">
       <c r="A298" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="C298" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="C298" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="D298" s="8" t="s">
         <v>74</v>
@@ -27681,13 +27681,13 @@
     </row>
     <row r="299" spans="1:29" ht="14.4">
       <c r="A299" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="C299" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="C299" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>40</v>
@@ -27770,13 +27770,13 @@
     </row>
     <row r="300" spans="1:29" ht="14.4">
       <c r="A300" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="C300" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="C300" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="D300" s="8" t="s">
         <v>42</v>
@@ -27859,13 +27859,13 @@
     </row>
     <row r="301" spans="1:29" ht="14.4">
       <c r="A301" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="C301" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="C301" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="D301" s="8" t="s">
         <v>94</v>
@@ -27948,13 +27948,13 @@
     </row>
     <row r="302" spans="1:29" ht="14.4">
       <c r="A302" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="C302" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="C302" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>44</v>
@@ -28037,13 +28037,13 @@
     </row>
     <row r="303" spans="1:29" ht="14.4">
       <c r="A303" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="C303" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="C303" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>46</v>
@@ -28126,13 +28126,13 @@
     </row>
     <row r="304" spans="1:29" ht="14.4">
       <c r="A304" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B304" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B304" s="11" t="s">
+      <c r="C304" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="C304" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>68</v>
@@ -28215,13 +28215,13 @@
     </row>
     <row r="305" spans="1:29" ht="14.4">
       <c r="A305" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B305" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B305" s="11" t="s">
+      <c r="C305" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="C305" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>36</v>
@@ -28304,13 +28304,13 @@
     </row>
     <row r="306" spans="1:29" ht="14.4">
       <c r="A306" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B306" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B306" s="11" t="s">
+      <c r="C306" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="C306" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="D306" s="8" t="s">
         <v>70</v>
@@ -28393,13 +28393,13 @@
     </row>
     <row r="307" spans="1:29" ht="14.4">
       <c r="A307" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B307" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B307" s="11" t="s">
+      <c r="C307" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="C307" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>38</v>
@@ -28482,13 +28482,13 @@
     </row>
     <row r="308" spans="1:29" ht="14.4">
       <c r="A308" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B308" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B308" s="11" t="s">
+      <c r="C308" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="C308" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="D308" s="8" t="s">
         <v>72</v>
@@ -28571,13 +28571,13 @@
     </row>
     <row r="309" spans="1:29" ht="14.4">
       <c r="A309" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B309" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B309" s="11" t="s">
+      <c r="C309" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="C309" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="D309" s="8" t="s">
         <v>74</v>
@@ -28660,13 +28660,13 @@
     </row>
     <row r="310" spans="1:29" ht="14.4">
       <c r="A310" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B310" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B310" s="11" t="s">
+      <c r="C310" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="C310" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>40</v>
@@ -28749,13 +28749,13 @@
     </row>
     <row r="311" spans="1:29" ht="14.4">
       <c r="A311" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B311" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B311" s="11" t="s">
+      <c r="C311" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="C311" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>46</v>
@@ -28838,13 +28838,13 @@
     </row>
     <row r="312" spans="1:29" ht="14.4">
       <c r="A312" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="C312" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>68</v>
@@ -28927,13 +28927,13 @@
     </row>
     <row r="313" spans="1:29" ht="14.4">
       <c r="A313" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="C313" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>36</v>
@@ -29016,13 +29016,13 @@
     </row>
     <row r="314" spans="1:29" ht="14.4">
       <c r="A314" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="C314" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>38</v>
@@ -29105,13 +29105,13 @@
     </row>
     <row r="315" spans="1:29" ht="14.4">
       <c r="A315" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="C315" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D315" s="8" t="s">
         <v>74</v>
@@ -29194,13 +29194,13 @@
     </row>
     <row r="316" spans="1:29" ht="14.4">
       <c r="A316" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="C316" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>40</v>
@@ -29283,13 +29283,13 @@
     </row>
     <row r="317" spans="1:29" ht="14.4">
       <c r="A317" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="C317" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D317" s="8" t="s">
         <v>42</v>
@@ -29372,13 +29372,13 @@
     </row>
     <row r="318" spans="1:29" ht="14.4">
       <c r="A318" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="C318" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>44</v>
@@ -29461,13 +29461,13 @@
     </row>
     <row r="319" spans="1:29" ht="14.4">
       <c r="A319" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="C319" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>46</v>
@@ -29550,13 +29550,13 @@
     </row>
     <row r="320" spans="1:29" ht="14.4">
       <c r="A320" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B320" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B320" s="6" t="s">
+      <c r="C320" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="C320" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>36</v>
@@ -29639,13 +29639,13 @@
     </row>
     <row r="321" spans="1:29" ht="14.4">
       <c r="A321" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B321" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B321" s="6" t="s">
+      <c r="C321" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="C321" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>38</v>
@@ -29728,13 +29728,13 @@
     </row>
     <row r="322" spans="1:29" ht="14.4">
       <c r="A322" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B322" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B322" s="6" t="s">
+      <c r="C322" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="C322" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>40</v>
@@ -29817,13 +29817,13 @@
     </row>
     <row r="323" spans="1:29" ht="14.4">
       <c r="A323" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B323" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B323" s="6" t="s">
+      <c r="C323" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="C323" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>46</v>
@@ -29906,13 +29906,13 @@
     </row>
     <row r="324" spans="1:29" ht="14.4">
       <c r="A324" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C324" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="C324" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>68</v>
@@ -29995,13 +29995,13 @@
     </row>
     <row r="325" spans="1:29" ht="14.4">
       <c r="A325" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C325" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="C325" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="D325" s="8" t="s">
         <v>90</v>
@@ -30084,13 +30084,13 @@
     </row>
     <row r="326" spans="1:29" ht="14.4">
       <c r="A326" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C326" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="C326" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>36</v>
@@ -30173,13 +30173,13 @@
     </row>
     <row r="327" spans="1:29" ht="14.4">
       <c r="A327" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C327" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="C327" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>38</v>
@@ -30262,13 +30262,13 @@
     </row>
     <row r="328" spans="1:29" ht="14.4">
       <c r="A328" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C328" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="C328" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>40</v>
@@ -30351,13 +30351,13 @@
     </row>
     <row r="329" spans="1:29" ht="14.4">
       <c r="A329" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C329" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="C329" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="D329" s="8" t="s">
         <v>42</v>
@@ -30440,13 +30440,13 @@
     </row>
     <row r="330" spans="1:29" ht="14.4">
       <c r="A330" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C330" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="C330" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>44</v>
@@ -30529,7 +30529,7 @@
     </row>
     <row r="331" spans="1:29" ht="14.4">
       <c r="A331" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>29</v>
@@ -30618,7 +30618,7 @@
     </row>
     <row r="332" spans="1:29" ht="14.4">
       <c r="A332" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>29</v>
@@ -30707,7 +30707,7 @@
     </row>
     <row r="333" spans="1:29" ht="14.4">
       <c r="A333" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>29</v>
@@ -30716,7 +30716,7 @@
         <v>55</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E333" s="9" t="s">
         <v>67</v>
@@ -30796,7 +30796,7 @@
     </row>
     <row r="334" spans="1:29" ht="14.4">
       <c r="A334" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>29</v>
@@ -30885,7 +30885,7 @@
     </row>
     <row r="335" spans="1:29" ht="14.4">
       <c r="A335" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>29</v>
@@ -30974,7 +30974,7 @@
     </row>
     <row r="336" spans="1:29" ht="14.4">
       <c r="A336" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>29</v>
@@ -31063,7 +31063,7 @@
     </row>
     <row r="337" spans="1:29" ht="14.4">
       <c r="A337" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>29</v>
@@ -31152,7 +31152,7 @@
     </row>
     <row r="338" spans="1:29" ht="14.4">
       <c r="A338" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>29</v>
@@ -31241,7 +31241,7 @@
     </row>
     <row r="339" spans="1:29" ht="14.4">
       <c r="A339" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>29</v>
@@ -31330,7 +31330,7 @@
     </row>
     <row r="340" spans="1:29" ht="14.4">
       <c r="A340" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>29</v>
@@ -31419,7 +31419,7 @@
     </row>
     <row r="341" spans="1:29" ht="14.4">
       <c r="A341" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>29</v>
@@ -31508,7 +31508,7 @@
     </row>
     <row r="342" spans="1:29" ht="14.4">
       <c r="A342" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>29</v>

--- a/cet_colg_data.xlsx
+++ b/cet_colg_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mithr\Desktop\College Counselling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3257AC4D-6A96-48C2-A7E9-35180319E19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFF3C60-B011-4EE8-A2BC-69781FAF1C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11666" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11666" uniqueCount="396">
   <si>
     <t>College Code</t>
   </si>
@@ -711,9 +711,6 @@
     <t>AI - Artificial Intelligence and Machine Learning</t>
   </si>
   <si>
-    <t>BT - Bio Technology</t>
-  </si>
-  <si>
     <t>CB - ZC - COMPUTER SCIENCE and Business Systems</t>
   </si>
   <si>
@@ -1224,7 +1221,7 @@
     <t>CE - Civil Engineering (Kannada Medium)</t>
   </si>
   <si>
-    <t xml:space="preserve">BT - Bio Technology </t>
+    <t xml:space="preserve">BT - Bio Technology  </t>
   </si>
 </sst>
 </file>
@@ -1766,8 +1763,8 @@
   </sheetPr>
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A521" zoomScale="107" workbookViewId="0">
-      <selection activeCell="D257" sqref="D257"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="107" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1789,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1877,7 +1874,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>224</v>
@@ -1971,7 +1968,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>31</v>
@@ -2060,10 +2057,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>34</v>
@@ -2149,10 +2146,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>35</v>
@@ -2238,10 +2235,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>36</v>
@@ -2327,10 +2324,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>37</v>
@@ -2416,10 +2413,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>38</v>
@@ -2505,10 +2502,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>39</v>
@@ -2597,7 +2594,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>34</v>
@@ -2686,7 +2683,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>35</v>
@@ -2775,7 +2772,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>36</v>
@@ -2953,7 +2950,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>44</v>
@@ -3039,10 +3036,10 @@
         <v>29</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>34</v>
@@ -3128,10 +3125,10 @@
         <v>29</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>36</v>
@@ -3217,10 +3214,10 @@
         <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>37</v>
@@ -3306,7 +3303,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>46</v>
@@ -3395,10 +3392,10 @@
         <v>29</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>39</v>
@@ -3487,7 +3484,7 @@
         <v>49</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>34</v>
@@ -3580,7 +3577,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>35</v>
@@ -3669,7 +3666,7 @@
         <v>49</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>36</v>
@@ -3758,7 +3755,7 @@
         <v>49</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>37</v>
@@ -3847,7 +3844,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>50</v>
@@ -4114,7 +4111,7 @@
         <v>49</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>39</v>
@@ -4292,7 +4289,7 @@
         <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>55</v>
@@ -4381,7 +4378,7 @@
         <v>54</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>56</v>
@@ -4470,7 +4467,7 @@
         <v>54</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>34</v>
@@ -4559,7 +4556,7 @@
         <v>54</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>57</v>
@@ -4648,7 +4645,7 @@
         <v>54</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>35</v>
@@ -4826,7 +4823,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>60</v>
@@ -4915,7 +4912,7 @@
         <v>54</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>36</v>
@@ -5004,7 +5001,7 @@
         <v>54</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>37</v>
@@ -5182,7 +5179,7 @@
         <v>54</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>38</v>
@@ -5360,7 +5357,7 @@
         <v>54</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>39</v>
@@ -5538,7 +5535,7 @@
         <v>64</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>65</v>
@@ -5805,7 +5802,7 @@
         <v>64</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>55</v>
@@ -5894,7 +5891,7 @@
         <v>64</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>56</v>
@@ -5983,7 +5980,7 @@
         <v>64</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>34</v>
@@ -6072,7 +6069,7 @@
         <v>64</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>57</v>
@@ -6161,7 +6158,7 @@
         <v>64</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>35</v>
@@ -6339,7 +6336,7 @@
         <v>64</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>36</v>
@@ -6428,7 +6425,7 @@
         <v>64</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>37</v>
@@ -6517,7 +6514,7 @@
         <v>64</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>50</v>
@@ -6695,7 +6692,7 @@
         <v>64</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>38</v>
@@ -6962,7 +6959,7 @@
         <v>64</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>39</v>
@@ -7137,10 +7134,10 @@
         <v>29</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>69</v>
@@ -7226,7 +7223,7 @@
         <v>29</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>224</v>
@@ -7315,7 +7312,7 @@
         <v>29</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>70</v>
@@ -7404,10 +7401,10 @@
         <v>29</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>55</v>
@@ -7493,10 +7490,10 @@
         <v>29</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>72</v>
@@ -7582,10 +7579,10 @@
         <v>29</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>73</v>
@@ -7671,10 +7668,10 @@
         <v>29</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>34</v>
@@ -7760,10 +7757,10 @@
         <v>29</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>57</v>
@@ -7849,10 +7846,10 @@
         <v>29</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>35</v>
@@ -7938,7 +7935,7 @@
         <v>29</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>58</v>
@@ -8027,10 +8024,10 @@
         <v>29</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>60</v>
@@ -8116,10 +8113,10 @@
         <v>29</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>36</v>
@@ -8205,10 +8202,10 @@
         <v>29</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>37</v>
@@ -8294,10 +8291,10 @@
         <v>29</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>50</v>
@@ -8383,7 +8380,7 @@
         <v>29</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>51</v>
@@ -8472,10 +8469,10 @@
         <v>29</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>74</v>
@@ -8561,10 +8558,10 @@
         <v>29</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>38</v>
@@ -8650,7 +8647,7 @@
         <v>29</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>66</v>
@@ -8739,10 +8736,10 @@
         <v>29</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>39</v>
@@ -8828,10 +8825,10 @@
         <v>29</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>75</v>
@@ -8917,7 +8914,7 @@
         <v>29</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>224</v>
@@ -9006,10 +9003,10 @@
         <v>29</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>34</v>
@@ -9095,10 +9092,10 @@
         <v>29</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>35</v>
@@ -9184,10 +9181,10 @@
         <v>29</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>60</v>
@@ -9273,10 +9270,10 @@
         <v>29</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>36</v>
@@ -9362,10 +9359,10 @@
         <v>29</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>37</v>
@@ -9451,10 +9448,10 @@
         <v>29</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>50</v>
@@ -9540,7 +9537,7 @@
         <v>29</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>51</v>
@@ -9629,10 +9626,10 @@
         <v>29</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>77</v>
@@ -9718,10 +9715,10 @@
         <v>29</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>74</v>
@@ -9807,10 +9804,10 @@
         <v>29</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>38</v>
@@ -9896,10 +9893,10 @@
         <v>29</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>39</v>
@@ -9985,10 +9982,10 @@
         <v>29</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>75</v>
@@ -10789,7 +10786,7 @@
         <v>94</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>34</v>
@@ -10878,7 +10875,7 @@
         <v>94</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>35</v>
@@ -11056,7 +11053,7 @@
         <v>94</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>36</v>
@@ -11145,7 +11142,7 @@
         <v>94</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>37</v>
@@ -11234,7 +11231,7 @@
         <v>94</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>38</v>
@@ -11323,7 +11320,7 @@
         <v>94</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>39</v>
@@ -11412,7 +11409,7 @@
         <v>94</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>75</v>
@@ -11501,7 +11498,7 @@
         <v>97</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>65</v>
@@ -11590,7 +11587,7 @@
         <v>97</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>69</v>
@@ -11679,7 +11676,7 @@
         <v>97</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>56</v>
@@ -11768,7 +11765,7 @@
         <v>97</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>73</v>
@@ -11857,7 +11854,7 @@
         <v>97</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>34</v>
@@ -11946,7 +11943,7 @@
         <v>97</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>98</v>
@@ -12035,7 +12032,7 @@
         <v>97</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>35</v>
@@ -12124,7 +12121,7 @@
         <v>97</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>36</v>
@@ -12213,7 +12210,7 @@
         <v>97</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>38</v>
@@ -12302,7 +12299,7 @@
         <v>97</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>39</v>
@@ -12480,7 +12477,7 @@
         <v>101</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>65</v>
@@ -12569,7 +12566,7 @@
         <v>101</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>55</v>
@@ -12658,7 +12655,7 @@
         <v>101</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>56</v>
@@ -12747,7 +12744,7 @@
         <v>101</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>34</v>
@@ -12836,7 +12833,7 @@
         <v>101</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>57</v>
@@ -12925,7 +12922,7 @@
         <v>101</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>35</v>
@@ -13014,7 +13011,7 @@
         <v>101</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>36</v>
@@ -13103,7 +13100,7 @@
         <v>101</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>37</v>
@@ -13192,7 +13189,7 @@
         <v>101</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>50</v>
@@ -13370,7 +13367,7 @@
         <v>101</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>38</v>
@@ -13548,7 +13545,7 @@
         <v>101</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>39</v>
@@ -13637,7 +13634,7 @@
         <v>104</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>34</v>
@@ -13726,7 +13723,7 @@
         <v>104</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>35</v>
@@ -13815,7 +13812,7 @@
         <v>104</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>36</v>
@@ -13904,7 +13901,7 @@
         <v>104</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>37</v>
@@ -13993,7 +13990,7 @@
         <v>104</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>50</v>
@@ -14349,7 +14346,7 @@
         <v>104</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>39</v>
@@ -14616,7 +14613,7 @@
         <v>115</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>34</v>
@@ -14705,7 +14702,7 @@
         <v>115</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>36</v>
@@ -14794,7 +14791,7 @@
         <v>115</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>37</v>
@@ -14972,7 +14969,7 @@
         <v>115</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>39</v>
@@ -15061,7 +15058,7 @@
         <v>118</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>34</v>
@@ -15150,7 +15147,7 @@
         <v>118</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>36</v>
@@ -15239,7 +15236,7 @@
         <v>118</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E152" s="9" t="s">
         <v>37</v>
@@ -15328,7 +15325,7 @@
         <v>118</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>39</v>
@@ -15417,7 +15414,7 @@
         <v>121</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>34</v>
@@ -15506,7 +15503,7 @@
         <v>121</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>35</v>
@@ -15595,7 +15592,7 @@
         <v>121</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>36</v>
@@ -15684,7 +15681,7 @@
         <v>121</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>37</v>
@@ -15862,7 +15859,7 @@
         <v>121</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>39</v>
@@ -16040,7 +16037,7 @@
         <v>124</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>34</v>
@@ -16129,7 +16126,7 @@
         <v>124</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>57</v>
@@ -16218,7 +16215,7 @@
         <v>124</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>35</v>
@@ -16307,7 +16304,7 @@
         <v>124</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>36</v>
@@ -16396,7 +16393,7 @@
         <v>124</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>37</v>
@@ -16485,7 +16482,7 @@
         <v>124</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>38</v>
@@ -16574,7 +16571,7 @@
         <v>124</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>39</v>
@@ -16663,7 +16660,7 @@
         <v>127</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>34</v>
@@ -16752,7 +16749,7 @@
         <v>127</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>35</v>
@@ -16841,7 +16838,7 @@
         <v>127</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>36</v>
@@ -16930,7 +16927,7 @@
         <v>127</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>37</v>
@@ -17019,7 +17016,7 @@
         <v>127</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>38</v>
@@ -17108,7 +17105,7 @@
         <v>127</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>39</v>
@@ -17197,7 +17194,7 @@
         <v>129</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>69</v>
@@ -17375,7 +17372,7 @@
         <v>129</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>73</v>
@@ -17464,7 +17461,7 @@
         <v>129</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>34</v>
@@ -17553,7 +17550,7 @@
         <v>129</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>57</v>
@@ -17642,7 +17639,7 @@
         <v>129</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>35</v>
@@ -17731,7 +17728,7 @@
         <v>129</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>60</v>
@@ -17909,7 +17906,7 @@
         <v>129</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>36</v>
@@ -17998,7 +17995,7 @@
         <v>129</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>37</v>
@@ -18087,7 +18084,7 @@
         <v>129</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>77</v>
@@ -18176,7 +18173,7 @@
         <v>129</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>38</v>
@@ -18265,7 +18262,7 @@
         <v>129</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>39</v>
@@ -18529,7 +18526,7 @@
         <v>29</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>224</v>
@@ -18618,10 +18615,10 @@
         <v>29</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>225</v>
+        <v>390</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>55</v>
@@ -18707,10 +18704,10 @@
         <v>29</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>34</v>
@@ -18796,10 +18793,10 @@
         <v>29</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>35</v>
@@ -18885,10 +18882,10 @@
         <v>29</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>60</v>
@@ -18974,10 +18971,10 @@
         <v>29</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>36</v>
@@ -19063,10 +19060,10 @@
         <v>29</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>37</v>
@@ -19152,7 +19149,7 @@
         <v>29</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>135</v>
@@ -19241,10 +19238,10 @@
         <v>29</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E197" s="9" t="s">
         <v>74</v>
@@ -19330,10 +19327,10 @@
         <v>29</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>38</v>
@@ -19419,10 +19416,10 @@
         <v>29</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>39</v>
@@ -19508,10 +19505,10 @@
         <v>29</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D200" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>75</v>
@@ -19597,7 +19594,7 @@
         <v>29</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D201" s="14" t="s">
         <v>137</v>
@@ -19689,7 +19686,7 @@
         <v>141</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>56</v>
@@ -19778,7 +19775,7 @@
         <v>141</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>34</v>
@@ -19867,7 +19864,7 @@
         <v>141</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>35</v>
@@ -19956,7 +19953,7 @@
         <v>141</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>36</v>
@@ -20045,7 +20042,7 @@
         <v>141</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>37</v>
@@ -20134,7 +20131,7 @@
         <v>141</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>39</v>
@@ -20490,7 +20487,7 @@
         <v>145</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>34</v>
@@ -20579,7 +20576,7 @@
         <v>145</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>35</v>
@@ -20757,7 +20754,7 @@
         <v>145</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E214" s="9" t="s">
         <v>60</v>
@@ -20846,7 +20843,7 @@
         <v>145</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>36</v>
@@ -20935,7 +20932,7 @@
         <v>145</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E216" s="9" t="s">
         <v>37</v>
@@ -21113,7 +21110,7 @@
         <v>145</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>38</v>
@@ -21202,7 +21199,7 @@
         <v>145</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>39</v>
@@ -21291,7 +21288,7 @@
         <v>145</v>
       </c>
       <c r="D220" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>75</v>
@@ -21469,7 +21466,7 @@
         <v>150</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>34</v>
@@ -21558,7 +21555,7 @@
         <v>150</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>35</v>
@@ -21647,7 +21644,7 @@
         <v>150</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>36</v>
@@ -21736,7 +21733,7 @@
         <v>150</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>38</v>
@@ -21825,7 +21822,7 @@
         <v>150</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>39</v>
@@ -21914,7 +21911,7 @@
         <v>152</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>34</v>
@@ -22003,7 +22000,7 @@
         <v>152</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>36</v>
@@ -22092,7 +22089,7 @@
         <v>152</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>39</v>
@@ -22181,7 +22178,7 @@
         <v>155</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E230" s="9" t="s">
         <v>73</v>
@@ -22270,7 +22267,7 @@
         <v>155</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E231" s="5" t="s">
         <v>34</v>
@@ -22359,7 +22356,7 @@
         <v>155</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E232" s="5" t="s">
         <v>35</v>
@@ -22537,7 +22534,7 @@
         <v>155</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>36</v>
@@ -22626,7 +22623,7 @@
         <v>155</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E235" s="9" t="s">
         <v>37</v>
@@ -22715,7 +22712,7 @@
         <v>155</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>39</v>
@@ -22804,7 +22801,7 @@
         <v>160</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E237" s="5" t="s">
         <v>35</v>
@@ -22893,7 +22890,7 @@
         <v>160</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>36</v>
@@ -22982,7 +22979,7 @@
         <v>160</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E239" s="5" t="s">
         <v>39</v>
@@ -23071,7 +23068,7 @@
         <v>160</v>
       </c>
       <c r="D240" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E240" s="4" t="s">
         <v>75</v>
@@ -23249,7 +23246,7 @@
         <v>163</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E242" s="5" t="s">
         <v>34</v>
@@ -23338,7 +23335,7 @@
         <v>163</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>35</v>
@@ -23427,7 +23424,7 @@
         <v>163</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>36</v>
@@ -23516,7 +23513,7 @@
         <v>163</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>39</v>
@@ -23605,7 +23602,7 @@
         <v>163</v>
       </c>
       <c r="D246" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E246" s="8" t="s">
         <v>44</v>
@@ -23694,7 +23691,7 @@
         <v>166</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E247" s="5" t="s">
         <v>56</v>
@@ -23783,7 +23780,7 @@
         <v>166</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E248" s="5" t="s">
         <v>34</v>
@@ -23872,7 +23869,7 @@
         <v>166</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E249" s="5" t="s">
         <v>35</v>
@@ -23961,7 +23958,7 @@
         <v>166</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E250" s="9" t="s">
         <v>60</v>
@@ -24050,7 +24047,7 @@
         <v>166</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E251" s="5" t="s">
         <v>36</v>
@@ -24139,7 +24136,7 @@
         <v>166</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E252" s="9" t="s">
         <v>37</v>
@@ -24228,7 +24225,7 @@
         <v>166</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E253" s="5" t="s">
         <v>39</v>
@@ -24317,7 +24314,7 @@
         <v>166</v>
       </c>
       <c r="D254" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E254" s="4" t="s">
         <v>75</v>
@@ -24495,7 +24492,7 @@
         <v>168</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E256" s="5" t="s">
         <v>34</v>
@@ -24584,7 +24581,7 @@
         <v>168</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E257" s="9" t="s">
         <v>169</v>
@@ -24673,7 +24670,7 @@
         <v>168</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E258" s="9" t="s">
         <v>57</v>
@@ -24762,7 +24759,7 @@
         <v>168</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E259" s="5" t="s">
         <v>35</v>
@@ -24851,7 +24848,7 @@
         <v>168</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E260" s="5" t="s">
         <v>36</v>
@@ -24940,7 +24937,7 @@
         <v>168</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E261" s="9" t="s">
         <v>37</v>
@@ -25029,7 +25026,7 @@
         <v>168</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E262" s="5" t="s">
         <v>39</v>
@@ -25118,7 +25115,7 @@
         <v>171</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E263" s="9" t="s">
         <v>69</v>
@@ -25207,7 +25204,7 @@
         <v>171</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E264" s="5" t="s">
         <v>56</v>
@@ -25296,7 +25293,7 @@
         <v>171</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E265" s="5" t="s">
         <v>34</v>
@@ -25385,7 +25382,7 @@
         <v>171</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E266" s="5" t="s">
         <v>35</v>
@@ -25474,7 +25471,7 @@
         <v>171</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E267" s="5" t="s">
         <v>36</v>
@@ -25563,7 +25560,7 @@
         <v>171</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E268" s="9" t="s">
         <v>37</v>
@@ -25652,7 +25649,7 @@
         <v>171</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E269" s="5" t="s">
         <v>38</v>
@@ -25741,7 +25738,7 @@
         <v>171</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E270" s="5" t="s">
         <v>39</v>
@@ -25919,7 +25916,7 @@
         <v>174</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E272" s="5" t="s">
         <v>56</v>
@@ -26008,7 +26005,7 @@
         <v>174</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E273" s="5" t="s">
         <v>34</v>
@@ -26097,7 +26094,7 @@
         <v>174</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E274" s="5" t="s">
         <v>35</v>
@@ -26186,7 +26183,7 @@
         <v>174</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E275" s="9" t="s">
         <v>60</v>
@@ -26275,7 +26272,7 @@
         <v>174</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>36</v>
@@ -26364,7 +26361,7 @@
         <v>174</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E277" s="9" t="s">
         <v>37</v>
@@ -26453,7 +26450,7 @@
         <v>174</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E278" s="5" t="s">
         <v>38</v>
@@ -26542,7 +26539,7 @@
         <v>174</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E279" s="5" t="s">
         <v>39</v>
@@ -26631,7 +26628,7 @@
         <v>177</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E280" s="5" t="s">
         <v>35</v>
@@ -26720,7 +26717,7 @@
         <v>177</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E281" s="5" t="s">
         <v>36</v>
@@ -26809,7 +26806,7 @@
         <v>177</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E282" s="9" t="s">
         <v>37</v>
@@ -26898,7 +26895,7 @@
         <v>177</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E283" s="5" t="s">
         <v>39</v>
@@ -26987,7 +26984,7 @@
         <v>180</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E284" s="5" t="s">
         <v>34</v>
@@ -27076,7 +27073,7 @@
         <v>180</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E285" s="5" t="s">
         <v>36</v>
@@ -27165,7 +27162,7 @@
         <v>180</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E286" s="9" t="s">
         <v>37</v>
@@ -27343,7 +27340,7 @@
         <v>180</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E288" s="5" t="s">
         <v>39</v>
@@ -27432,7 +27429,7 @@
         <v>183</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E289" s="9" t="s">
         <v>69</v>
@@ -27521,7 +27518,7 @@
         <v>183</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E290" s="5" t="s">
         <v>34</v>
@@ -27610,7 +27607,7 @@
         <v>183</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E291" s="5" t="s">
         <v>35</v>
@@ -27699,7 +27696,7 @@
         <v>183</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E292" s="5" t="s">
         <v>36</v>
@@ -27788,7 +27785,7 @@
         <v>183</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E293" s="5" t="s">
         <v>39</v>
@@ -27966,7 +27963,7 @@
         <v>186</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>56</v>
@@ -28055,7 +28052,7 @@
         <v>186</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E296" s="5" t="s">
         <v>34</v>
@@ -28144,7 +28141,7 @@
         <v>186</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E297" s="5" t="s">
         <v>35</v>
@@ -28233,7 +28230,7 @@
         <v>186</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E298" s="9" t="s">
         <v>60</v>
@@ -28322,7 +28319,7 @@
         <v>186</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E299" s="5" t="s">
         <v>36</v>
@@ -28411,7 +28408,7 @@
         <v>186</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E300" s="9" t="s">
         <v>37</v>
@@ -28500,7 +28497,7 @@
         <v>186</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E301" s="9" t="s">
         <v>74</v>
@@ -28589,7 +28586,7 @@
         <v>186</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E302" s="5" t="s">
         <v>38</v>
@@ -28678,7 +28675,7 @@
         <v>186</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E303" s="5" t="s">
         <v>39</v>
@@ -28767,7 +28764,7 @@
         <v>189</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E304" s="5" t="s">
         <v>56</v>
@@ -28856,7 +28853,7 @@
         <v>189</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E305" s="5" t="s">
         <v>34</v>
@@ -28945,7 +28942,7 @@
         <v>189</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E306" s="9" t="s">
         <v>57</v>
@@ -29034,7 +29031,7 @@
         <v>189</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E307" s="5" t="s">
         <v>35</v>
@@ -29212,7 +29209,7 @@
         <v>189</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E309" s="9" t="s">
         <v>60</v>
@@ -29301,7 +29298,7 @@
         <v>189</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E310" s="5" t="s">
         <v>36</v>
@@ -29390,7 +29387,7 @@
         <v>189</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E311" s="5" t="s">
         <v>39</v>
@@ -29479,7 +29476,7 @@
         <v>192</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E312" s="5" t="s">
         <v>56</v>
@@ -29568,7 +29565,7 @@
         <v>192</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E313" s="5" t="s">
         <v>34</v>
@@ -29657,7 +29654,7 @@
         <v>192</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E314" s="5" t="s">
         <v>35</v>
@@ -29746,7 +29743,7 @@
         <v>192</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E315" s="9" t="s">
         <v>60</v>
@@ -29835,7 +29832,7 @@
         <v>192</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E316" s="5" t="s">
         <v>36</v>
@@ -29924,7 +29921,7 @@
         <v>192</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E317" s="9" t="s">
         <v>37</v>
@@ -30013,7 +30010,7 @@
         <v>192</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E318" s="5" t="s">
         <v>38</v>
@@ -30102,7 +30099,7 @@
         <v>192</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E319" s="5" t="s">
         <v>39</v>
@@ -30191,7 +30188,7 @@
         <v>195</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E320" s="5" t="s">
         <v>34</v>
@@ -30280,7 +30277,7 @@
         <v>195</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E321" s="5" t="s">
         <v>35</v>
@@ -30369,7 +30366,7 @@
         <v>195</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E322" s="5" t="s">
         <v>36</v>
@@ -30458,7 +30455,7 @@
         <v>195</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E323" s="5" t="s">
         <v>39</v>
@@ -30547,7 +30544,7 @@
         <v>118</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E324" s="5" t="s">
         <v>56</v>
@@ -30636,7 +30633,7 @@
         <v>118</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E325" s="9" t="s">
         <v>72</v>
@@ -30725,7 +30722,7 @@
         <v>118</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E326" s="5" t="s">
         <v>34</v>
@@ -30814,7 +30811,7 @@
         <v>118</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E327" s="5" t="s">
         <v>35</v>
@@ -30903,7 +30900,7 @@
         <v>118</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E328" s="5" t="s">
         <v>36</v>
@@ -30992,7 +30989,7 @@
         <v>118</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E329" s="9" t="s">
         <v>37</v>
@@ -31081,7 +31078,7 @@
         <v>118</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E330" s="5" t="s">
         <v>38</v>
@@ -31167,10 +31164,10 @@
         <v>29</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E331" s="5" t="s">
         <v>65</v>
@@ -31256,7 +31253,7 @@
         <v>29</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>224</v>
@@ -31345,10 +31342,10 @@
         <v>29</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="D333" s="8" t="s">
-        <v>225</v>
+        <v>391</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="E333" s="9" t="s">
         <v>55</v>
@@ -31434,10 +31431,10 @@
         <v>29</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D334" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E334" s="9" t="s">
         <v>72</v>
@@ -31523,10 +31520,10 @@
         <v>29</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E335" s="5" t="s">
         <v>34</v>
@@ -31612,10 +31609,10 @@
         <v>29</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E336" s="9" t="s">
         <v>57</v>
@@ -31701,10 +31698,10 @@
         <v>29</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E337" s="5" t="s">
         <v>35</v>
@@ -31790,10 +31787,10 @@
         <v>29</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D338" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E338" s="9" t="s">
         <v>60</v>
@@ -31879,10 +31876,10 @@
         <v>29</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E339" s="5" t="s">
         <v>36</v>
@@ -31968,10 +31965,10 @@
         <v>29</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D340" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E340" s="9" t="s">
         <v>74</v>
@@ -32057,10 +32054,10 @@
         <v>29</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E341" s="5" t="s">
         <v>39</v>
@@ -32146,7 +32143,7 @@
         <v>29</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D342" s="13" t="s">
         <v>61</v>
@@ -32415,8 +32412,8 @@
       <c r="C345" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D345" s="8" t="s">
-        <v>225</v>
+      <c r="D345" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="E345" s="9" t="s">
         <v>55</v>
@@ -32505,7 +32502,7 @@
         <v>121</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E346" s="5" t="s">
         <v>34</v>
@@ -32594,7 +32591,7 @@
         <v>121</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E347" s="5" t="s">
         <v>35</v>
@@ -32683,7 +32680,7 @@
         <v>121</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E348" s="5" t="s">
         <v>36</v>
@@ -32861,7 +32858,7 @@
         <v>121</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E350" s="5" t="s">
         <v>38</v>
@@ -32950,7 +32947,7 @@
         <v>201</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E351" s="5" t="s">
         <v>56</v>
@@ -33039,7 +33036,7 @@
         <v>201</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E352" s="5" t="s">
         <v>34</v>
@@ -33217,7 +33214,7 @@
         <v>201</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E354" s="5" t="s">
         <v>35</v>
@@ -33306,7 +33303,7 @@
         <v>201</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E355" s="5" t="s">
         <v>36</v>
@@ -33483,8 +33480,8 @@
       <c r="C357" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D357" s="8" t="s">
-        <v>225</v>
+      <c r="D357" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="E357" s="9" t="s">
         <v>55</v>
@@ -33573,7 +33570,7 @@
         <v>206</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E358" s="5" t="s">
         <v>34</v>
@@ -33662,7 +33659,7 @@
         <v>206</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E359" s="5" t="s">
         <v>35</v>
@@ -33751,7 +33748,7 @@
         <v>206</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E360" s="5" t="s">
         <v>36</v>
@@ -33840,7 +33837,7 @@
         <v>206</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E361" s="9" t="s">
         <v>74</v>
@@ -33929,7 +33926,7 @@
         <v>206</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E362" s="5" t="s">
         <v>39</v>
@@ -34018,7 +34015,7 @@
         <v>208</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E363" s="5" t="s">
         <v>34</v>
@@ -34107,7 +34104,7 @@
         <v>208</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E364" s="5" t="s">
         <v>36</v>
@@ -34196,7 +34193,7 @@
         <v>208</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E365" s="9" t="s">
         <v>37</v>
@@ -34285,7 +34282,7 @@
         <v>208</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E366" s="5" t="s">
         <v>39</v>
@@ -34373,8 +34370,8 @@
       <c r="C367" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D367" s="8" t="s">
-        <v>225</v>
+      <c r="D367" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="E367" s="9" t="s">
         <v>55</v>
@@ -34463,7 +34460,7 @@
         <v>210</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E368" s="9" t="s">
         <v>72</v>
@@ -34552,7 +34549,7 @@
         <v>210</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E369" s="5" t="s">
         <v>34</v>
@@ -34641,7 +34638,7 @@
         <v>210</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E370" s="5" t="s">
         <v>35</v>
@@ -34819,7 +34816,7 @@
         <v>210</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E372" s="5" t="s">
         <v>36</v>
@@ -34908,7 +34905,7 @@
         <v>210</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E373" s="5" t="s">
         <v>38</v>
@@ -34997,7 +34994,7 @@
         <v>210</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E374" s="5" t="s">
         <v>39</v>
@@ -35086,7 +35083,7 @@
         <v>214</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E375" s="5" t="s">
         <v>56</v>
@@ -35175,7 +35172,7 @@
         <v>214</v>
       </c>
       <c r="D376" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E376" s="9" t="s">
         <v>72</v>
@@ -35264,7 +35261,7 @@
         <v>214</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E377" s="5" t="s">
         <v>34</v>
@@ -35353,7 +35350,7 @@
         <v>214</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E378" s="5" t="s">
         <v>35</v>
@@ -35442,7 +35439,7 @@
         <v>214</v>
       </c>
       <c r="D379" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E379" s="9" t="s">
         <v>60</v>
@@ -35531,7 +35528,7 @@
         <v>214</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E380" s="5" t="s">
         <v>36</v>
@@ -35620,7 +35617,7 @@
         <v>214</v>
       </c>
       <c r="D381" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E381" s="9" t="s">
         <v>37</v>
@@ -35709,7 +35706,7 @@
         <v>214</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E382" s="5" t="s">
         <v>38</v>
@@ -35887,7 +35884,7 @@
         <v>180</v>
       </c>
       <c r="D384" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E384" s="9" t="s">
         <v>73</v>
@@ -35976,7 +35973,7 @@
         <v>180</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E385" s="5" t="s">
         <v>34</v>
@@ -36154,7 +36151,7 @@
         <v>180</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E387" s="5" t="s">
         <v>35</v>
@@ -36243,7 +36240,7 @@
         <v>180</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E388" s="5" t="s">
         <v>36</v>
@@ -36332,7 +36329,7 @@
         <v>180</v>
       </c>
       <c r="D389" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E389" s="9" t="s">
         <v>37</v>
@@ -36421,7 +36418,7 @@
         <v>180</v>
       </c>
       <c r="D390" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E390" s="9" t="s">
         <v>50</v>
@@ -36510,7 +36507,7 @@
         <v>180</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E391" s="5" t="s">
         <v>38</v>
@@ -36688,7 +36685,7 @@
         <v>180</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E393" s="5" t="s">
         <v>39</v>
@@ -36774,10 +36771,10 @@
         <v>29</v>
       </c>
       <c r="C394" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D394" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E394" s="9" t="s">
         <v>69</v>
@@ -36863,7 +36860,7 @@
         <v>29</v>
       </c>
       <c r="C395" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>224</v>
@@ -36952,10 +36949,10 @@
         <v>29</v>
       </c>
       <c r="C396" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D396" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E396" s="9" t="s">
         <v>72</v>
@@ -37041,10 +37038,10 @@
         <v>29</v>
       </c>
       <c r="C397" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E397" s="5" t="s">
         <v>34</v>
@@ -37130,10 +37127,10 @@
         <v>29</v>
       </c>
       <c r="C398" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E398" s="5" t="s">
         <v>35</v>
@@ -37219,10 +37216,10 @@
         <v>29</v>
       </c>
       <c r="C399" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D399" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E399" s="5" t="s">
         <v>36</v>
@@ -37308,10 +37305,10 @@
         <v>29</v>
       </c>
       <c r="C400" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E400" s="5" t="s">
         <v>38</v>
@@ -37400,7 +37397,7 @@
         <v>221</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E401" s="5" t="s">
         <v>34</v>
@@ -37489,7 +37486,7 @@
         <v>221</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E402" s="5" t="s">
         <v>35</v>
@@ -37578,7 +37575,7 @@
         <v>221</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E403" s="5" t="s">
         <v>36</v>
@@ -37667,7 +37664,7 @@
         <v>221</v>
       </c>
       <c r="D404" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E404" s="9" t="s">
         <v>37</v>
@@ -37756,7 +37753,7 @@
         <v>221</v>
       </c>
       <c r="D405" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E405" s="9" t="s">
         <v>50</v>
@@ -37845,7 +37842,7 @@
         <v>221</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E406" s="5" t="s">
         <v>39</v>
@@ -37934,7 +37931,7 @@
         <v>221</v>
       </c>
       <c r="D407" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E407" s="4" t="s">
         <v>75</v>
@@ -38111,8 +38108,8 @@
       <c r="C409" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D409" s="26" t="s">
-        <v>225</v>
+      <c r="D409" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="E409" s="27" t="s">
         <v>55</v>
@@ -38201,7 +38198,7 @@
         <v>223</v>
       </c>
       <c r="D410" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E410" s="27" t="s">
         <v>72</v>
@@ -38290,7 +38287,7 @@
         <v>223</v>
       </c>
       <c r="D411" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E411" s="27" t="s">
         <v>73</v>
@@ -38379,7 +38376,7 @@
         <v>223</v>
       </c>
       <c r="D412" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E412" s="5" t="s">
         <v>34</v>
@@ -38468,7 +38465,7 @@
         <v>223</v>
       </c>
       <c r="D413" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E413" s="27" t="s">
         <v>57</v>
@@ -38557,7 +38554,7 @@
         <v>223</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E414" s="5" t="s">
         <v>35</v>
@@ -38646,7 +38643,7 @@
         <v>223</v>
       </c>
       <c r="D415" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E415" s="27" t="s">
         <v>60</v>
@@ -38735,7 +38732,7 @@
         <v>223</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E416" s="5" t="s">
         <v>36</v>
@@ -38824,7 +38821,7 @@
         <v>223</v>
       </c>
       <c r="D417" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E417" s="27" t="s">
         <v>37</v>
@@ -38913,7 +38910,7 @@
         <v>223</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E418" s="5" t="s">
         <v>38</v>
@@ -39002,7 +38999,7 @@
         <v>223</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E419" s="5" t="s">
         <v>39</v>
@@ -39091,7 +39088,7 @@
         <v>223</v>
       </c>
       <c r="D420" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E420" s="26" t="s">
         <v>44</v>
@@ -39171,16 +39168,16 @@
     </row>
     <row r="421" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B421" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B421" s="28" t="s">
+      <c r="C421" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="C421" s="28" t="s">
-        <v>239</v>
-      </c>
       <c r="D421" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E421" s="5" t="s">
         <v>34</v>
@@ -39260,16 +39257,16 @@
     </row>
     <row r="422" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B422" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B422" s="28" t="s">
+      <c r="C422" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="C422" s="28" t="s">
-        <v>239</v>
-      </c>
       <c r="D422" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E422" s="5" t="s">
         <v>35</v>
@@ -39349,16 +39346,16 @@
     </row>
     <row r="423" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B423" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B423" s="28" t="s">
+      <c r="C423" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="C423" s="28" t="s">
-        <v>239</v>
-      </c>
       <c r="D423" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E423" s="5" t="s">
         <v>36</v>
@@ -39438,16 +39435,16 @@
     </row>
     <row r="424" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B424" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B424" s="28" t="s">
+      <c r="C424" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="C424" s="28" t="s">
-        <v>239</v>
-      </c>
       <c r="D424" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E424" s="27" t="s">
         <v>37</v>
@@ -39527,16 +39524,16 @@
     </row>
     <row r="425" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B425" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B425" s="28" t="s">
+      <c r="C425" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="C425" s="28" t="s">
-        <v>239</v>
-      </c>
       <c r="D425" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E425" s="5" t="s">
         <v>39</v>
@@ -39616,13 +39613,13 @@
     </row>
     <row r="426" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B426" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B426" s="24" t="s">
+      <c r="C426" s="24" t="s">
         <v>241</v>
-      </c>
-      <c r="C426" s="24" t="s">
-        <v>242</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>224</v>
@@ -39705,16 +39702,16 @@
     </row>
     <row r="427" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B427" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B427" s="24" t="s">
+      <c r="C427" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C427" s="24" t="s">
-        <v>242</v>
-      </c>
       <c r="D427" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E427" s="5" t="s">
         <v>34</v>
@@ -39794,16 +39791,16 @@
     </row>
     <row r="428" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B428" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B428" s="24" t="s">
+      <c r="C428" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C428" s="24" t="s">
-        <v>242</v>
-      </c>
       <c r="D428" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E428" s="5" t="s">
         <v>35</v>
@@ -39883,16 +39880,16 @@
     </row>
     <row r="429" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B429" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B429" s="24" t="s">
+      <c r="C429" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C429" s="24" t="s">
-        <v>242</v>
-      </c>
       <c r="D429" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E429" s="27" t="s">
         <v>60</v>
@@ -39972,16 +39969,16 @@
     </row>
     <row r="430" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B430" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B430" s="24" t="s">
+      <c r="C430" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C430" s="24" t="s">
-        <v>242</v>
-      </c>
       <c r="D430" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E430" s="5" t="s">
         <v>36</v>
@@ -40061,16 +40058,16 @@
     </row>
     <row r="431" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B431" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B431" s="24" t="s">
+      <c r="C431" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C431" s="24" t="s">
-        <v>242</v>
-      </c>
       <c r="D431" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E431" s="27" t="s">
         <v>37</v>
@@ -40150,16 +40147,16 @@
     </row>
     <row r="432" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B432" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B432" s="24" t="s">
+      <c r="C432" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C432" s="24" t="s">
-        <v>242</v>
-      </c>
       <c r="D432" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E432" s="5" t="s">
         <v>38</v>
@@ -40239,16 +40236,16 @@
     </row>
     <row r="433" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B433" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B433" s="24" t="s">
+      <c r="C433" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C433" s="24" t="s">
-        <v>242</v>
-      </c>
       <c r="D433" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E433" s="5" t="s">
         <v>39</v>
@@ -40328,16 +40325,16 @@
     </row>
     <row r="434" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B434" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B434" s="24" t="s">
+      <c r="C434" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C434" s="24" t="s">
+      <c r="D434" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="D434" s="13" t="s">
-        <v>243</v>
       </c>
       <c r="E434" s="4" t="s">
         <v>75</v>
@@ -40417,13 +40414,13 @@
     </row>
     <row r="435" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B435" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B435" s="28" t="s">
+      <c r="C435" s="28" t="s">
         <v>245</v>
-      </c>
-      <c r="C435" s="28" t="s">
-        <v>246</v>
       </c>
       <c r="D435" s="4" t="s">
         <v>224</v>
@@ -40506,16 +40503,16 @@
     </row>
     <row r="436" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B436" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B436" s="28" t="s">
+      <c r="C436" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="C436" s="28" t="s">
-        <v>246</v>
-      </c>
       <c r="D436" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E436" s="5" t="s">
         <v>34</v>
@@ -40595,16 +40592,16 @@
     </row>
     <row r="437" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B437" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B437" s="28" t="s">
+      <c r="C437" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="C437" s="28" t="s">
-        <v>246</v>
-      </c>
       <c r="D437" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E437" s="5" t="s">
         <v>35</v>
@@ -40684,16 +40681,16 @@
     </row>
     <row r="438" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B438" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B438" s="28" t="s">
+      <c r="C438" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="C438" s="28" t="s">
-        <v>246</v>
-      </c>
       <c r="D438" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E438" s="27" t="s">
         <v>60</v>
@@ -40773,16 +40770,16 @@
     </row>
     <row r="439" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B439" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B439" s="28" t="s">
+      <c r="C439" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="C439" s="28" t="s">
-        <v>246</v>
-      </c>
       <c r="D439" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E439" s="5" t="s">
         <v>36</v>
@@ -40862,16 +40859,16 @@
     </row>
     <row r="440" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B440" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B440" s="28" t="s">
+      <c r="C440" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="C440" s="28" t="s">
-        <v>246</v>
-      </c>
       <c r="D440" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E440" s="27" t="s">
         <v>37</v>
@@ -40951,16 +40948,16 @@
     </row>
     <row r="441" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B441" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B441" s="28" t="s">
+      <c r="C441" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="C441" s="28" t="s">
+      <c r="D441" s="26" t="s">
         <v>246</v>
-      </c>
-      <c r="D441" s="26" t="s">
-        <v>247</v>
       </c>
       <c r="E441" s="27" t="s">
         <v>52</v>
@@ -41040,16 +41037,16 @@
     </row>
     <row r="442" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B442" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B442" s="28" t="s">
+      <c r="C442" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="C442" s="28" t="s">
-        <v>246</v>
-      </c>
       <c r="D442" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E442" s="5" t="s">
         <v>38</v>
@@ -41129,16 +41126,16 @@
     </row>
     <row r="443" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B443" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B443" s="28" t="s">
+      <c r="C443" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="C443" s="28" t="s">
-        <v>246</v>
-      </c>
       <c r="D443" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E443" s="5" t="s">
         <v>39</v>
@@ -41218,16 +41215,16 @@
     </row>
     <row r="444" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B444" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B444" s="28" t="s">
+      <c r="C444" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="C444" s="28" t="s">
-        <v>246</v>
-      </c>
       <c r="D444" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E444" s="4" t="s">
         <v>75</v>
@@ -41307,16 +41304,16 @@
     </row>
     <row r="445" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B445" s="34" t="s">
         <v>220</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E445" s="5" t="s">
         <v>34</v>
@@ -41396,16 +41393,16 @@
     </row>
     <row r="446" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B446" s="34" t="s">
         <v>220</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E446" s="5" t="s">
         <v>35</v>
@@ -41485,16 +41482,16 @@
     </row>
     <row r="447" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B447" s="34" t="s">
         <v>220</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E447" s="5" t="s">
         <v>36</v>
@@ -41574,16 +41571,16 @@
     </row>
     <row r="448" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B448" s="34" t="s">
         <v>220</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D448" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E448" s="27" t="s">
         <v>37</v>
@@ -41663,16 +41660,16 @@
     </row>
     <row r="449" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B449" s="34" t="s">
         <v>220</v>
       </c>
       <c r="C449" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D449" s="26" t="s">
         <v>249</v>
-      </c>
-      <c r="D449" s="26" t="s">
-        <v>250</v>
       </c>
       <c r="E449" s="27" t="s">
         <v>50</v>
@@ -41752,16 +41749,16 @@
     </row>
     <row r="450" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B450" s="34" t="s">
         <v>220</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E450" s="5" t="s">
         <v>39</v>
@@ -41841,16 +41838,16 @@
     </row>
     <row r="451" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B451" s="34" t="s">
         <v>220</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D451" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E451" s="4" t="s">
         <v>75</v>
@@ -41930,13 +41927,13 @@
     </row>
     <row r="452" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B452" s="34" t="s">
         <v>117</v>
       </c>
       <c r="C452" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>224</v>
@@ -41954,61 +41951,61 @@
         <v>33</v>
       </c>
       <c r="I452" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="J452" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K452" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="J452" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K452" s="28" t="s">
+      <c r="L452" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M452" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="N452" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="O452" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="L452" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="M452" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="N452" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="O452" s="28" t="s">
+      <c r="P452" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="P452" s="28" t="s">
+      <c r="Q452" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R452" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="Q452" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="R452" s="28" t="s">
+      <c r="S452" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="T452" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="U452" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="S452" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="T452" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="U452" s="28" t="s">
+      <c r="V452" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="W452" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="V452" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="W452" s="28" t="s">
+      <c r="X452" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="X452" s="28" t="s">
+      <c r="Y452" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z452" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="Y452" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z452" s="28" t="s">
+      <c r="AA452" s="28" t="s">
         <v>261</v>
-      </c>
-      <c r="AA452" s="28" t="s">
-        <v>262</v>
       </c>
       <c r="AB452" s="28" t="s">
         <v>33</v>
@@ -42019,16 +42016,16 @@
     </row>
     <row r="453" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B453" s="34" t="s">
         <v>117</v>
       </c>
       <c r="C453" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E453" s="5" t="s">
         <v>34</v>
@@ -42043,61 +42040,61 @@
         <v>33</v>
       </c>
       <c r="I453" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="J453" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K453" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L453" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M453" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N453" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O453" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P453" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q453" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="R453" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="S453" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="T453" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="U453" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="J453" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="K453" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L453" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="M453" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="N453" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="O453" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="P453" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q453" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="R453" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="S453" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="T453" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="U453" s="24" t="s">
+      <c r="V453" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="W453" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="V453" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="W453" s="24" t="s">
+      <c r="X453" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="X453" s="24" t="s">
+      <c r="Y453" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z453" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA453" s="24" t="s">
         <v>266</v>
-      </c>
-      <c r="Y453" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z453" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA453" s="24" t="s">
-        <v>267</v>
       </c>
       <c r="AB453" s="24" t="s">
         <v>33</v>
@@ -42108,85 +42105,85 @@
     </row>
     <row r="454" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B454" s="34" t="s">
         <v>117</v>
       </c>
       <c r="C454" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E454" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F454" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="G454" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H454" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I454" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="G454" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H454" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I454" s="28" t="s">
+      <c r="J454" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K454" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="L454" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="J454" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K454" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="L454" s="28" t="s">
+      <c r="M454" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="N454" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="M454" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="N454" s="28" t="s">
+      <c r="O454" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="O454" s="28" t="s">
+      <c r="P454" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q454" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="P454" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q454" s="28" t="s">
+      <c r="R454" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="R454" s="28" t="s">
+      <c r="S454" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="T454" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="U454" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="S454" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="T454" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="U454" s="28" t="s">
+      <c r="V454" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="V454" s="28" t="s">
+      <c r="W454" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="W454" s="28" t="s">
+      <c r="X454" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="X454" s="28" t="s">
+      <c r="Y454" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z454" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA454" s="28" t="s">
         <v>278</v>
-      </c>
-      <c r="Y454" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z454" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA454" s="28" t="s">
-        <v>279</v>
       </c>
       <c r="AB454" s="28" t="s">
         <v>33</v>
@@ -42197,85 +42194,85 @@
     </row>
     <row r="455" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B455" s="34" t="s">
         <v>117</v>
       </c>
       <c r="C455" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E455" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F455" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="G455" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H455" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I455" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="G455" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H455" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I455" s="24" t="s">
+      <c r="J455" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="J455" s="24" t="s">
+      <c r="K455" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="K455" s="24" t="s">
+      <c r="L455" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="L455" s="24" t="s">
+      <c r="M455" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N455" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O455" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="M455" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="N455" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="O455" s="24" t="s">
+      <c r="P455" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q455" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="R455" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="P455" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q455" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="R455" s="24" t="s">
+      <c r="S455" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="T455" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="U455" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="S455" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="T455" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="U455" s="24" t="s">
+      <c r="V455" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="W455" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="V455" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="W455" s="24" t="s">
+      <c r="X455" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="X455" s="24" t="s">
+      <c r="Y455" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z455" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="Y455" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z455" s="24" t="s">
+      <c r="AA455" s="24" t="s">
         <v>290</v>
-      </c>
-      <c r="AA455" s="24" t="s">
-        <v>291</v>
       </c>
       <c r="AB455" s="24" t="s">
         <v>33</v>
@@ -42286,105 +42283,105 @@
     </row>
     <row r="456" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B456" s="34" t="s">
         <v>117</v>
       </c>
       <c r="C456" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E456" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F456" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="G456" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H456" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I456" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="G456" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H456" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I456" s="28" t="s">
+      <c r="J456" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K456" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="L456" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="J456" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K456" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="L456" s="28" t="s">
+      <c r="M456" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="N456" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="O456" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="M456" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="N456" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="O456" s="28" t="s">
+      <c r="P456" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q456" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R456" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="P456" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q456" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="R456" s="28" t="s">
+      <c r="S456" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="T456" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="S456" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="T456" s="28" t="s">
+      <c r="U456" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="U456" s="28" t="s">
+      <c r="V456" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="W456" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="V456" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="W456" s="28" t="s">
+      <c r="X456" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="X456" s="28" t="s">
+      <c r="Y456" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="Y456" s="28" t="s">
+      <c r="Z456" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA456" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="Z456" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA456" s="28" t="s">
+      <c r="AB456" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC456" s="30" t="s">
         <v>302</v>
-      </c>
-      <c r="AB456" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC456" s="30" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="457" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B457" s="34" t="s">
         <v>117</v>
       </c>
       <c r="C457" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E457" s="5" t="s">
         <v>39</v>
@@ -42399,52 +42396,52 @@
         <v>33</v>
       </c>
       <c r="I457" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="J457" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K457" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L457" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M457" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N457" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O457" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P457" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q457" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="R457" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="S457" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="T457" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="U457" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="J457" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="K457" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L457" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="M457" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="N457" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="O457" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="P457" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q457" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="R457" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="S457" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="T457" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="U457" s="24" t="s">
+      <c r="V457" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="V457" s="24" t="s">
+      <c r="W457" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="W457" s="24" t="s">
+      <c r="X457" s="24" t="s">
         <v>307</v>
-      </c>
-      <c r="X457" s="24" t="s">
-        <v>308</v>
       </c>
       <c r="Y457" s="24" t="s">
         <v>33</v>
@@ -42464,16 +42461,16 @@
     </row>
     <row r="458" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B458" s="34" t="s">
         <v>103</v>
       </c>
       <c r="C458" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="D458" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="D458" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="E458" s="5" t="s">
         <v>56</v>
@@ -42553,16 +42550,16 @@
     </row>
     <row r="459" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B459" s="34" t="s">
         <v>103</v>
       </c>
       <c r="C459" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E459" s="5" t="s">
         <v>34</v>
@@ -42642,16 +42639,16 @@
     </row>
     <row r="460" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B460" s="34" t="s">
         <v>103</v>
       </c>
       <c r="C460" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D460" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E460" s="5" t="s">
         <v>35</v>
@@ -42731,16 +42728,16 @@
     </row>
     <row r="461" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B461" s="34" t="s">
         <v>103</v>
       </c>
       <c r="C461" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E461" s="5" t="s">
         <v>36</v>
@@ -42820,16 +42817,16 @@
     </row>
     <row r="462" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B462" s="34" t="s">
         <v>103</v>
       </c>
       <c r="C462" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D462" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E462" s="27" t="s">
         <v>37</v>
@@ -42909,16 +42906,16 @@
     </row>
     <row r="463" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B463" s="34" t="s">
         <v>103</v>
       </c>
       <c r="C463" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E463" s="5" t="s">
         <v>38</v>
@@ -42998,16 +42995,16 @@
     </row>
     <row r="464" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B464" s="34" t="s">
         <v>103</v>
       </c>
       <c r="C464" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D464" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E464" s="5" t="s">
         <v>39</v>
@@ -43087,13 +43084,13 @@
     </row>
     <row r="465" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B465" s="24" t="s">
         <v>191</v>
       </c>
       <c r="C465" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>224</v>
@@ -43176,16 +43173,16 @@
     </row>
     <row r="466" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B466" s="24" t="s">
         <v>191</v>
       </c>
       <c r="C466" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E466" s="5" t="s">
         <v>34</v>
@@ -43265,16 +43262,16 @@
     </row>
     <row r="467" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B467" s="24" t="s">
         <v>191</v>
       </c>
       <c r="C467" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="D467" s="26" t="s">
         <v>313</v>
-      </c>
-      <c r="D467" s="26" t="s">
-        <v>314</v>
       </c>
       <c r="E467" s="27" t="s">
         <v>169</v>
@@ -43354,16 +43351,16 @@
     </row>
     <row r="468" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B468" s="24" t="s">
         <v>191</v>
       </c>
       <c r="C468" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E468" s="5" t="s">
         <v>35</v>
@@ -43443,16 +43440,16 @@
     </row>
     <row r="469" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B469" s="24" t="s">
         <v>191</v>
       </c>
       <c r="C469" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D469" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E469" s="27" t="s">
         <v>60</v>
@@ -43532,16 +43529,16 @@
     </row>
     <row r="470" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B470" s="24" t="s">
         <v>191</v>
       </c>
       <c r="C470" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E470" s="5" t="s">
         <v>36</v>
@@ -43621,16 +43618,16 @@
     </row>
     <row r="471" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B471" s="24" t="s">
         <v>191</v>
       </c>
       <c r="C471" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D471" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E471" s="27" t="s">
         <v>37</v>
@@ -43710,16 +43707,16 @@
     </row>
     <row r="472" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B472" s="24" t="s">
         <v>191</v>
       </c>
       <c r="C472" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E472" s="5" t="s">
         <v>39</v>
@@ -43799,16 +43796,16 @@
     </row>
     <row r="473" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B473" s="24" t="s">
         <v>191</v>
       </c>
       <c r="C473" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E473" s="5" t="s">
         <v>56</v>
@@ -43888,16 +43885,16 @@
     </row>
     <row r="474" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B474" s="24" t="s">
         <v>191</v>
       </c>
       <c r="C474" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E474" s="5" t="s">
         <v>34</v>
@@ -43977,16 +43974,16 @@
     </row>
     <row r="475" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B475" s="24" t="s">
         <v>191</v>
       </c>
       <c r="C475" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E475" s="5" t="s">
         <v>35</v>
@@ -44066,16 +44063,16 @@
     </row>
     <row r="476" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B476" s="24" t="s">
         <v>191</v>
       </c>
       <c r="C476" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E476" s="5" t="s">
         <v>36</v>
@@ -44155,16 +44152,16 @@
     </row>
     <row r="477" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B477" s="24" t="s">
         <v>191</v>
       </c>
       <c r="C477" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D477" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E477" s="27" t="s">
         <v>37</v>
@@ -44244,16 +44241,16 @@
     </row>
     <row r="478" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B478" s="24" t="s">
         <v>191</v>
       </c>
       <c r="C478" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E478" s="5" t="s">
         <v>39</v>
@@ -44335,16 +44332,16 @@
     </row>
     <row r="479" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E479" s="5" t="s">
         <v>34</v>
@@ -44424,16 +44421,16 @@
     </row>
     <row r="480" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E480" s="5" t="s">
         <v>35</v>
@@ -44513,16 +44510,16 @@
     </row>
     <row r="481" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E481" s="5" t="s">
         <v>36</v>
@@ -44602,16 +44599,16 @@
     </row>
     <row r="482" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D482" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E482" s="27" t="s">
         <v>37</v>
@@ -44691,16 +44688,16 @@
     </row>
     <row r="483" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E483" s="5" t="s">
         <v>38</v>
@@ -44780,13 +44777,13 @@
     </row>
     <row r="484" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B484" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C484" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D484" s="4" t="s">
         <v>224</v>
@@ -44869,16 +44866,16 @@
     </row>
     <row r="485" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B485" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C485" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="D485" s="26" t="s">
-        <v>225</v>
+        <v>319</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="E485" s="27" t="s">
         <v>55</v>
@@ -44958,16 +44955,16 @@
     </row>
     <row r="486" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B486" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C486" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E486" s="5" t="s">
         <v>34</v>
@@ -45047,16 +45044,16 @@
     </row>
     <row r="487" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B487" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C487" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E487" s="5" t="s">
         <v>35</v>
@@ -45136,16 +45133,16 @@
     </row>
     <row r="488" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B488" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C488" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E488" s="5" t="s">
         <v>36</v>
@@ -45225,16 +45222,16 @@
     </row>
     <row r="489" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B489" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C489" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D489" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E489" s="27" t="s">
         <v>37</v>
@@ -45314,16 +45311,16 @@
     </row>
     <row r="490" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B490" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C490" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E490" s="5" t="s">
         <v>38</v>
@@ -45403,16 +45400,16 @@
     </row>
     <row r="491" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B491" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C491" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E491" s="5" t="s">
         <v>39</v>
@@ -45492,19 +45489,19 @@
     </row>
     <row r="492" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B492" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C492" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="D492" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="D492" s="13" t="s">
+      <c r="E492" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="E492" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="F492" s="24" t="s">
         <v>33</v>
@@ -45581,16 +45578,16 @@
     </row>
     <row r="493" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B493" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C493" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="D493" s="26" t="s">
         <v>324</v>
-      </c>
-      <c r="D493" s="26" t="s">
-        <v>325</v>
       </c>
       <c r="E493" s="27" t="s">
         <v>69</v>
@@ -45670,13 +45667,13 @@
     </row>
     <row r="494" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B494" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C494" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>224</v>
@@ -45759,16 +45756,16 @@
     </row>
     <row r="495" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B495" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C495" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="D495" s="26" t="s">
-        <v>225</v>
+        <v>323</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="E495" s="27" t="s">
         <v>55</v>
@@ -45848,16 +45845,16 @@
     </row>
     <row r="496" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B496" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C496" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E496" s="5" t="s">
         <v>34</v>
@@ -45937,16 +45934,16 @@
     </row>
     <row r="497" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B497" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C497" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E497" s="5" t="s">
         <v>35</v>
@@ -46026,16 +46023,16 @@
     </row>
     <row r="498" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B498" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C498" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D498" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E498" s="27" t="s">
         <v>60</v>
@@ -46115,16 +46112,16 @@
     </row>
     <row r="499" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B499" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C499" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E499" s="5" t="s">
         <v>36</v>
@@ -46204,16 +46201,16 @@
     </row>
     <row r="500" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B500" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C500" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D500" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E500" s="27" t="s">
         <v>37</v>
@@ -46293,16 +46290,16 @@
     </row>
     <row r="501" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B501" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C501" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E501" s="5" t="s">
         <v>38</v>
@@ -46382,16 +46379,16 @@
     </row>
     <row r="502" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B502" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C502" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D502" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E502" s="5" t="s">
         <v>39</v>
@@ -46471,19 +46468,19 @@
     </row>
     <row r="503" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B503" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C503" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D503" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="E503" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="E503" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="F503" s="28" t="s">
         <v>33</v>
@@ -46560,16 +46557,16 @@
     </row>
     <row r="504" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C504" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D504" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E504" s="5" t="s">
         <v>34</v>
@@ -46649,16 +46646,16 @@
     </row>
     <row r="505" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C505" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D505" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E505" s="5" t="s">
         <v>36</v>
@@ -46738,16 +46735,16 @@
     </row>
     <row r="506" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C506" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D506" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E506" s="27" t="s">
         <v>37</v>
@@ -46827,16 +46824,16 @@
     </row>
     <row r="507" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C507" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E507" s="5" t="s">
         <v>38</v>
@@ -46916,16 +46913,16 @@
     </row>
     <row r="508" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C508" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E508" s="5" t="s">
         <v>39</v>
@@ -47005,19 +47002,19 @@
     </row>
     <row r="509" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C509" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="D509" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="D509" s="13" t="s">
+      <c r="E509" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="E509" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="F509" s="23">
         <v>121168</v>
@@ -47094,16 +47091,16 @@
     </row>
     <row r="510" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C510" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D510" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E510" s="5" t="s">
         <v>56</v>
@@ -47183,16 +47180,16 @@
     </row>
     <row r="511" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C511" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D511" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E511" s="5" t="s">
         <v>34</v>
@@ -47272,16 +47269,16 @@
     </row>
     <row r="512" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C512" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D512" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E512" s="5" t="s">
         <v>35</v>
@@ -47361,16 +47358,16 @@
     </row>
     <row r="513" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C513" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D513" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E513" s="5" t="s">
         <v>36</v>
@@ -47450,16 +47447,16 @@
     </row>
     <row r="514" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C514" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D514" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E514" s="27" t="s">
         <v>50</v>
@@ -47539,16 +47536,16 @@
     </row>
     <row r="515" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C515" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D515" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E515" s="5" t="s">
         <v>38</v>
@@ -47628,16 +47625,16 @@
     </row>
     <row r="516" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C516" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D516" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E516" s="5" t="s">
         <v>39</v>
@@ -47717,19 +47714,19 @@
     </row>
     <row r="517" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C517" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="D517" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="D517" s="13" t="s">
+      <c r="E517" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="E517" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="F517" s="23">
         <v>39476</v>
@@ -47806,13 +47803,13 @@
     </row>
     <row r="518" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D518" s="4" t="s">
         <v>224</v>
@@ -47895,16 +47892,16 @@
     </row>
     <row r="519" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D519" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E519" s="5" t="s">
         <v>35</v>
@@ -47984,16 +47981,16 @@
     </row>
     <row r="520" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D520" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E520" s="5" t="s">
         <v>36</v>
@@ -48073,16 +48070,16 @@
     </row>
     <row r="521" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D521" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E521" s="5" t="s">
         <v>38</v>
@@ -48162,16 +48159,16 @@
     </row>
     <row r="522" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D522" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E522" s="5" t="s">
         <v>39</v>
@@ -48251,16 +48248,16 @@
     </row>
     <row r="523" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C523" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D523" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E523" s="5" t="s">
         <v>56</v>
@@ -48340,16 +48337,16 @@
     </row>
     <row r="524" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C524" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D524" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E524" s="5" t="s">
         <v>34</v>
@@ -48429,16 +48426,16 @@
     </row>
     <row r="525" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C525" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D525" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E525" s="5" t="s">
         <v>35</v>
@@ -48518,16 +48515,16 @@
     </row>
     <row r="526" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C526" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="D526" s="26" t="s">
         <v>337</v>
-      </c>
-      <c r="D526" s="26" t="s">
-        <v>338</v>
       </c>
       <c r="E526" s="27" t="s">
         <v>59</v>
@@ -48607,16 +48604,16 @@
     </row>
     <row r="527" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C527" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D527" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E527" s="5" t="s">
         <v>36</v>
@@ -48696,16 +48693,16 @@
     </row>
     <row r="528" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C528" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D528" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E528" s="5" t="s">
         <v>38</v>
@@ -48785,16 +48782,16 @@
     </row>
     <row r="529" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C529" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D529" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E529" s="5" t="s">
         <v>39</v>
@@ -48874,13 +48871,13 @@
     </row>
     <row r="530" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C530" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D530" s="4" t="s">
         <v>224</v>
@@ -48963,16 +48960,16 @@
     </row>
     <row r="531" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C531" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D531" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E531" s="5" t="s">
         <v>35</v>
@@ -49052,16 +49049,16 @@
     </row>
     <row r="532" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C532" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D532" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E532" s="5" t="s">
         <v>36</v>
@@ -49141,16 +49138,16 @@
     </row>
     <row r="533" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C533" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D533" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E533" s="27" t="s">
         <v>37</v>
@@ -49230,16 +49227,16 @@
     </row>
     <row r="534" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C534" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="D534" s="26" t="s">
         <v>340</v>
-      </c>
-      <c r="D534" s="26" t="s">
-        <v>341</v>
       </c>
       <c r="E534" s="27" t="s">
         <v>74</v>
@@ -49319,16 +49316,16 @@
     </row>
     <row r="535" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C535" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D535" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E535" s="5" t="s">
         <v>38</v>
@@ -49408,16 +49405,16 @@
     </row>
     <row r="536" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C536" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D536" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E536" s="5" t="s">
         <v>39</v>
@@ -49497,13 +49494,13 @@
     </row>
     <row r="537" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C537" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D537" s="4" t="s">
         <v>224</v>
@@ -49586,16 +49583,16 @@
     </row>
     <row r="538" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C538" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D538" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E538" s="5" t="s">
         <v>34</v>
@@ -49675,16 +49672,16 @@
     </row>
     <row r="539" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C539" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D539" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E539" s="5" t="s">
         <v>35</v>
@@ -49764,16 +49761,16 @@
     </row>
     <row r="540" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C540" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D540" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E540" s="5" t="s">
         <v>36</v>
@@ -49853,16 +49850,16 @@
     </row>
     <row r="541" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C541" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D541" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E541" s="5" t="s">
         <v>38</v>
@@ -49942,16 +49939,16 @@
     </row>
     <row r="542" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C542" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D542" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E542" s="5" t="s">
         <v>39</v>
@@ -50031,13 +50028,13 @@
     </row>
     <row r="543" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C543" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D543" s="4" t="s">
         <v>224</v>
@@ -50120,16 +50117,16 @@
     </row>
     <row r="544" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C544" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D544" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E544" s="5" t="s">
         <v>35</v>
@@ -50209,16 +50206,16 @@
     </row>
     <row r="545" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C545" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D545" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E545" s="5" t="s">
         <v>36</v>
@@ -50298,16 +50295,16 @@
     </row>
     <row r="546" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C546" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D546" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E546" s="27" t="s">
         <v>37</v>
@@ -50387,16 +50384,16 @@
     </row>
     <row r="547" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C547" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D547" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E547" s="5" t="s">
         <v>38</v>
@@ -50476,16 +50473,16 @@
     </row>
     <row r="548" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C548" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D548" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E548" s="5" t="s">
         <v>34</v>
@@ -50565,16 +50562,16 @@
     </row>
     <row r="549" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C549" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D549" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E549" s="5" t="s">
         <v>35</v>
@@ -50654,16 +50651,16 @@
     </row>
     <row r="550" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C550" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D550" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E550" s="5" t="s">
         <v>36</v>
@@ -50743,16 +50740,16 @@
     </row>
     <row r="551" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C551" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D551" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E551" s="5" t="s">
         <v>39</v>
@@ -50832,13 +50829,13 @@
     </row>
     <row r="552" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C552" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D552" s="4" t="s">
         <v>224</v>
@@ -50921,19 +50918,19 @@
     </row>
     <row r="553" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C553" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="D553" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D553" s="4" t="s">
+      <c r="E553" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="E553" s="5" t="s">
-        <v>350</v>
       </c>
       <c r="F553" s="29">
         <v>56185</v>
@@ -51010,16 +51007,16 @@
     </row>
     <row r="554" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C554" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D554" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E554" s="27" t="s">
         <v>73</v>
@@ -51099,16 +51096,16 @@
     </row>
     <row r="555" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C555" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D555" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E555" s="5" t="s">
         <v>35</v>
@@ -51188,16 +51185,16 @@
     </row>
     <row r="556" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C556" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D556" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E556" s="5" t="s">
         <v>36</v>
@@ -51277,16 +51274,16 @@
     </row>
     <row r="557" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C557" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D557" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E557" s="27" t="s">
         <v>74</v>
@@ -51366,16 +51363,16 @@
     </row>
     <row r="558" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C558" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D558" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E558" s="5" t="s">
         <v>39</v>
@@ -51455,13 +51452,13 @@
     </row>
     <row r="559" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D559" s="4" t="s">
         <v>224</v>
@@ -51544,16 +51541,16 @@
     </row>
     <row r="560" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D560" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E560" s="5" t="s">
         <v>34</v>
@@ -51633,16 +51630,16 @@
     </row>
     <row r="561" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D561" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E561" s="5" t="s">
         <v>35</v>
@@ -51722,16 +51719,16 @@
     </row>
     <row r="562" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D562" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E562" s="27" t="s">
         <v>60</v>
@@ -51811,16 +51808,16 @@
     </row>
     <row r="563" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D563" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E563" s="5" t="s">
         <v>36</v>
@@ -51900,16 +51897,16 @@
     </row>
     <row r="564" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D564" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E564" s="5" t="s">
         <v>38</v>
@@ -51989,16 +51986,16 @@
     </row>
     <row r="565" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D565" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E565" s="5" t="s">
         <v>39</v>
@@ -52078,16 +52075,16 @@
     </row>
     <row r="566" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C566" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D566" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="D566" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="E566" s="5" t="s">
         <v>65</v>
@@ -52167,16 +52164,16 @@
     </row>
     <row r="567" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D567" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E567" s="5" t="s">
         <v>34</v>
@@ -52256,16 +52253,16 @@
     </row>
     <row r="568" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D568" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E568" s="5" t="s">
         <v>35</v>
@@ -52345,16 +52342,16 @@
     </row>
     <row r="569" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D569" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E569" s="5" t="s">
         <v>36</v>
@@ -52434,16 +52431,16 @@
     </row>
     <row r="570" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D570" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E570" s="5" t="s">
         <v>136</v>
@@ -52523,16 +52520,16 @@
     </row>
     <row r="571" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E571" s="5" t="s">
         <v>39</v>
@@ -52612,19 +52609,19 @@
     </row>
     <row r="572" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D572" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="E572" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="E572" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="F572" s="24" t="s">
         <v>33</v>
@@ -52701,16 +52698,16 @@
     </row>
     <row r="573" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B573" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B573" s="1" t="s">
+      <c r="C573" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C573" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="D573" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E573" s="5" t="s">
         <v>65</v>
@@ -52790,13 +52787,13 @@
     </row>
     <row r="574" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B574" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B574" s="1" t="s">
+      <c r="C574" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="C574" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="D574" s="4" t="s">
         <v>224</v>
@@ -52879,16 +52876,16 @@
     </row>
     <row r="575" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B575" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B575" s="1" t="s">
+      <c r="C575" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C575" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="D575" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E575" s="5" t="s">
         <v>34</v>
@@ -52968,16 +52965,16 @@
     </row>
     <row r="576" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B576" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B576" s="1" t="s">
+      <c r="C576" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C576" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="D576" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E576" s="5" t="s">
         <v>35</v>
@@ -53057,16 +53054,16 @@
     </row>
     <row r="577" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B577" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B577" s="1" t="s">
+      <c r="C577" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C577" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="D577" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E577" s="27" t="s">
         <v>59</v>
@@ -53146,16 +53143,16 @@
     </row>
     <row r="578" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B578" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B578" s="1" t="s">
+      <c r="C578" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C578" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="D578" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E578" s="5" t="s">
         <v>36</v>
@@ -53235,16 +53232,16 @@
     </row>
     <row r="579" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B579" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B579" s="1" t="s">
+      <c r="C579" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C579" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="D579" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E579" s="5" t="s">
         <v>39</v>
@@ -53324,16 +53321,16 @@
     </row>
     <row r="580" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D580" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E580" s="27" t="s">
         <v>69</v>
@@ -53413,13 +53410,13 @@
     </row>
     <row r="581" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D581" s="4" t="s">
         <v>224</v>
@@ -53502,16 +53499,16 @@
     </row>
     <row r="582" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D582" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E582" s="5" t="s">
         <v>56</v>
@@ -53591,16 +53588,16 @@
     </row>
     <row r="583" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D583" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E583" s="5" t="s">
         <v>34</v>
@@ -53680,16 +53677,16 @@
     </row>
     <row r="584" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D584" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E584" s="5" t="s">
         <v>35</v>
@@ -53769,16 +53766,16 @@
     </row>
     <row r="585" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D585" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E585" s="27" t="s">
         <v>60</v>
@@ -53858,16 +53855,16 @@
     </row>
     <row r="586" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D586" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E586" s="5" t="s">
         <v>36</v>
@@ -53947,16 +53944,16 @@
     </row>
     <row r="587" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D587" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E587" s="27" t="s">
         <v>37</v>
@@ -54036,16 +54033,16 @@
     </row>
     <row r="588" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D588" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E588" s="5" t="s">
         <v>38</v>
@@ -54125,16 +54122,16 @@
     </row>
     <row r="589" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D589" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E589" s="5" t="s">
         <v>39</v>
@@ -54214,16 +54211,16 @@
     </row>
     <row r="590" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C590" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D590" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E590" s="5" t="s">
         <v>65</v>
@@ -54303,16 +54300,16 @@
     </row>
     <row r="591" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C591" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D591" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E591" s="5" t="s">
         <v>56</v>
@@ -54392,16 +54389,16 @@
     </row>
     <row r="592" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C592" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D592" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E592" s="5" t="s">
         <v>34</v>
@@ -54481,16 +54478,16 @@
     </row>
     <row r="593" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C593" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D593" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E593" s="5" t="s">
         <v>35</v>
@@ -54570,16 +54567,16 @@
     </row>
     <row r="594" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B594" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C594" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D594" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E594" s="5" t="s">
         <v>36</v>
@@ -54659,16 +54656,16 @@
     </row>
     <row r="595" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C595" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D595" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E595" s="27" t="s">
         <v>74</v>
@@ -54748,16 +54745,16 @@
     </row>
     <row r="596" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B596" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C596" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D596" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E596" s="5" t="s">
         <v>38</v>
@@ -54837,16 +54834,16 @@
     </row>
     <row r="597" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C597" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D597" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E597" s="5" t="s">
         <v>39</v>
@@ -54926,16 +54923,16 @@
     </row>
     <row r="598" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C598" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D598" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E598" s="5" t="s">
         <v>65</v>
@@ -55015,13 +55012,13 @@
     </row>
     <row r="599" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C599" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D599" s="4" t="s">
         <v>224</v>
@@ -55104,16 +55101,16 @@
     </row>
     <row r="600" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C600" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D600" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E600" s="5" t="s">
         <v>56</v>
@@ -55193,16 +55190,16 @@
     </row>
     <row r="601" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B601" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C601" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D601" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E601" s="5" t="s">
         <v>35</v>
@@ -55282,16 +55279,16 @@
     </row>
     <row r="602" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C602" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D602" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E602" s="27" t="s">
         <v>60</v>
@@ -55371,16 +55368,16 @@
     </row>
     <row r="603" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C603" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D603" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E603" s="5" t="s">
         <v>36</v>
@@ -55460,16 +55457,16 @@
     </row>
     <row r="604" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B604" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C604" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D604" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E604" s="5" t="s">
         <v>38</v>
@@ -55549,13 +55546,13 @@
     </row>
     <row r="605" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C605" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D605" s="4" t="s">
         <v>224</v>
@@ -55638,16 +55635,16 @@
     </row>
     <row r="606" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B606" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C606" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D606" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E606" s="27" t="s">
         <v>73</v>
@@ -55727,16 +55724,16 @@
     </row>
     <row r="607" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C607" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D607" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E607" s="5" t="s">
         <v>34</v>
@@ -55816,16 +55813,16 @@
     </row>
     <row r="608" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B608" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C608" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D608" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E608" s="5" t="s">
         <v>35</v>
@@ -55905,16 +55902,16 @@
     </row>
     <row r="609" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B609" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C609" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D609" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E609" s="27" t="s">
         <v>60</v>
@@ -55994,16 +55991,16 @@
     </row>
     <row r="610" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B610" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C610" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D610" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E610" s="5" t="s">
         <v>36</v>
@@ -56083,16 +56080,16 @@
     </row>
     <row r="611" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C611" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D611" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E611" s="5" t="s">
         <v>136</v>
@@ -56172,16 +56169,16 @@
     </row>
     <row r="612" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B612" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C612" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D612" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E612" s="5" t="s">
         <v>38</v>
@@ -56261,16 +56258,16 @@
     </row>
     <row r="613" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B613" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C613" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D613" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E613" s="5" t="s">
         <v>39</v>
@@ -56350,13 +56347,13 @@
     </row>
     <row r="614" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B614" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C614" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D614" s="4" t="s">
         <v>224</v>
@@ -56439,16 +56436,16 @@
     </row>
     <row r="615" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B615" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C615" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D615" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E615" s="5" t="s">
         <v>35</v>
@@ -56528,16 +56525,16 @@
     </row>
     <row r="616" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B616" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C616" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D616" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E616" s="27" t="s">
         <v>60</v>
@@ -56617,16 +56614,16 @@
     </row>
     <row r="617" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B617" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C617" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D617" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E617" s="5" t="s">
         <v>36</v>
@@ -56706,16 +56703,16 @@
     </row>
     <row r="618" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B618" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C618" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D618" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E618" s="27" t="s">
         <v>37</v>
@@ -56795,16 +56792,16 @@
     </row>
     <row r="619" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C619" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D619" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E619" s="5" t="s">
         <v>38</v>
@@ -56884,16 +56881,16 @@
     </row>
     <row r="620" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B620" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C620" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D620" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E620" s="5" t="s">
         <v>39</v>
@@ -56973,13 +56970,13 @@
     </row>
     <row r="621" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C621" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D621" s="4" t="s">
         <v>224</v>
@@ -57062,16 +57059,16 @@
     </row>
     <row r="622" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B622" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C622" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D622" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E622" s="5" t="s">
         <v>34</v>
@@ -57151,16 +57148,16 @@
     </row>
     <row r="623" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C623" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D623" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E623" s="5" t="s">
         <v>35</v>
@@ -57240,16 +57237,16 @@
     </row>
     <row r="624" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B624" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C624" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D624" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E624" s="27" t="s">
         <v>60</v>
@@ -57329,16 +57326,16 @@
     </row>
     <row r="625" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B625" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C625" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D625" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E625" s="5" t="s">
         <v>36</v>
@@ -57418,16 +57415,16 @@
     </row>
     <row r="626" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B626" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C626" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D626" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E626" s="27" t="s">
         <v>74</v>
@@ -57507,16 +57504,16 @@
     </row>
     <row r="627" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B627" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C627" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D627" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E627" s="5" t="s">
         <v>38</v>
@@ -57596,16 +57593,16 @@
     </row>
     <row r="628" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B628" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C628" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D628" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E628" s="5" t="s">
         <v>39</v>
@@ -57685,16 +57682,16 @@
     </row>
     <row r="629" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B629" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C629" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D629" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E629" s="5" t="s">
         <v>65</v>
@@ -57774,16 +57771,16 @@
     </row>
     <row r="630" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B630" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C630" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D630" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E630" s="5" t="s">
         <v>34</v>
@@ -57863,16 +57860,16 @@
     </row>
     <row r="631" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B631" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C631" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D631" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E631" s="5" t="s">
         <v>35</v>
@@ -57952,16 +57949,16 @@
     </row>
     <row r="632" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B632" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C632" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D632" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E632" s="5" t="s">
         <v>36</v>
@@ -58041,16 +58038,16 @@
     </row>
     <row r="633" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B633" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C633" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D633" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E633" s="27" t="s">
         <v>37</v>
@@ -58130,16 +58127,16 @@
     </row>
     <row r="634" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B634" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C634" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D634" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E634" s="5" t="s">
         <v>38</v>
@@ -58219,16 +58216,16 @@
     </row>
     <row r="635" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B635" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C635" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D635" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E635" s="5" t="s">
         <v>39</v>
@@ -58308,16 +58305,16 @@
     </row>
     <row r="636" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D636" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E636" s="5" t="s">
         <v>65</v>
@@ -58397,16 +58394,16 @@
     </row>
     <row r="637" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B637" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D637" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E637" s="5" t="s">
         <v>56</v>
@@ -58486,16 +58483,16 @@
     </row>
     <row r="638" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B638" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D638" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E638" s="5" t="s">
         <v>34</v>
@@ -58575,16 +58572,16 @@
     </row>
     <row r="639" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B639" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D639" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E639" s="5" t="s">
         <v>35</v>
@@ -58664,16 +58661,16 @@
     </row>
     <row r="640" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B640" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D640" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E640" s="5" t="s">
         <v>36</v>
@@ -58753,16 +58750,16 @@
     </row>
     <row r="641" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B641" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D641" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E641" s="27" t="s">
         <v>37</v>
@@ -58842,16 +58839,16 @@
     </row>
     <row r="642" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B642" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D642" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E642" s="5" t="s">
         <v>38</v>
@@ -58931,16 +58928,16 @@
     </row>
     <row r="643" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B643" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C643" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D643" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E643" s="5" t="s">
         <v>65</v>
@@ -59020,16 +59017,16 @@
     </row>
     <row r="644" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B644" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C644" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D644" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E644" s="27" t="s">
         <v>69</v>
@@ -59109,13 +59106,13 @@
     </row>
     <row r="645" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B645" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C645" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D645" s="4" t="s">
         <v>224</v>
@@ -59198,16 +59195,16 @@
     </row>
     <row r="646" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B646" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C646" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D646" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E646" s="5" t="s">
         <v>56</v>
@@ -59287,16 +59284,16 @@
     </row>
     <row r="647" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B647" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C647" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D647" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E647" s="5" t="s">
         <v>34</v>
@@ -59376,16 +59373,16 @@
     </row>
     <row r="648" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B648" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C648" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D648" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E648" s="5" t="s">
         <v>35</v>
@@ -59465,16 +59462,16 @@
     </row>
     <row r="649" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B649" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C649" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D649" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E649" s="5" t="s">
         <v>36</v>
@@ -59554,16 +59551,16 @@
     </row>
     <row r="650" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B650" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C650" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D650" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E650" s="27" t="s">
         <v>37</v>
@@ -59643,16 +59640,16 @@
     </row>
     <row r="651" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B651" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C651" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D651" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E651" s="5" t="s">
         <v>38</v>
@@ -59732,16 +59729,16 @@
     </row>
     <row r="652" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B652" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C652" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D652" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E652" s="5" t="s">
         <v>39</v>
@@ -59821,16 +59818,16 @@
     </row>
     <row r="653" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B653" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C653" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D653" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E653" s="5" t="s">
         <v>56</v>
@@ -59910,16 +59907,16 @@
     </row>
     <row r="654" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C654" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D654" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E654" s="5" t="s">
         <v>34</v>
@@ -59999,16 +59996,16 @@
     </row>
     <row r="655" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B655" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C655" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D655" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E655" s="5" t="s">
         <v>35</v>
@@ -60088,16 +60085,16 @@
     </row>
     <row r="656" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B656" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C656" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D656" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E656" s="27" t="s">
         <v>60</v>
@@ -60177,16 +60174,16 @@
     </row>
     <row r="657" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B657" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C657" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D657" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E657" s="5" t="s">
         <v>36</v>
@@ -60266,16 +60263,16 @@
     </row>
     <row r="658" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B658" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C658" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D658" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E658" s="5" t="s">
         <v>38</v>
@@ -60355,16 +60352,16 @@
     </row>
     <row r="659" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B659" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C659" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D659" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E659" s="5" t="s">
         <v>65</v>
@@ -60444,16 +60441,16 @@
     </row>
     <row r="660" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C660" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D660" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E660" s="27" t="s">
         <v>69</v>
@@ -60533,13 +60530,13 @@
     </row>
     <row r="661" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B661" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C661" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D661" s="4" t="s">
         <v>224</v>
@@ -60622,16 +60619,16 @@
     </row>
     <row r="662" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B662" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C662" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D662" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E662" s="27" t="s">
         <v>72</v>
@@ -60711,16 +60708,16 @@
     </row>
     <row r="663" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B663" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C663" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D663" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E663" s="5" t="s">
         <v>34</v>
@@ -60800,16 +60797,16 @@
     </row>
     <row r="664" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B664" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C664" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D664" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E664" s="5" t="s">
         <v>35</v>
@@ -60889,19 +60886,19 @@
     </row>
     <row r="665" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B665" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C665" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="D665" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="D665" s="26" t="s">
+      <c r="E665" s="27" t="s">
         <v>382</v>
-      </c>
-      <c r="E665" s="27" t="s">
-        <v>383</v>
       </c>
       <c r="F665" s="28" t="s">
         <v>33</v>
@@ -60978,16 +60975,16 @@
     </row>
     <row r="666" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B666" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C666" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D666" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E666" s="5" t="s">
         <v>36</v>
@@ -61067,16 +61064,16 @@
     </row>
     <row r="667" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B667" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C667" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D667" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E667" s="27" t="s">
         <v>37</v>
@@ -61156,16 +61153,16 @@
     </row>
     <row r="668" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B668" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C668" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D668" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E668" s="27" t="s">
         <v>77</v>
@@ -61245,16 +61242,16 @@
     </row>
     <row r="669" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B669" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C669" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D669" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E669" s="5" t="s">
         <v>38</v>
@@ -61334,16 +61331,16 @@
     </row>
     <row r="670" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B670" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C670" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D670" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E670" s="5" t="s">
         <v>39</v>
@@ -61423,16 +61420,16 @@
     </row>
     <row r="671" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C671" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D671" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E671" s="5" t="s">
         <v>65</v>
@@ -61512,13 +61509,13 @@
     </row>
     <row r="672" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B672" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C672" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D672" s="4" t="s">
         <v>224</v>
@@ -61601,16 +61598,16 @@
     </row>
     <row r="673" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B673" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C673" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D673" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E673" s="5" t="s">
         <v>56</v>
@@ -61690,16 +61687,16 @@
     </row>
     <row r="674" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B674" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C674" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D674" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E674" s="5" t="s">
         <v>34</v>
@@ -61779,16 +61776,16 @@
     </row>
     <row r="675" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B675" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C675" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D675" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E675" s="5" t="s">
         <v>35</v>
@@ -61868,16 +61865,16 @@
     </row>
     <row r="676" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B676" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C676" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D676" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E676" s="5" t="s">
         <v>36</v>
@@ -61957,16 +61954,16 @@
     </row>
     <row r="677" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B677" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C677" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D677" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E677" s="27" t="s">
         <v>37</v>
@@ -62046,16 +62043,16 @@
     </row>
     <row r="678" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B678" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C678" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D678" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E678" s="5" t="s">
         <v>136</v>
@@ -62135,16 +62132,16 @@
     </row>
     <row r="679" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B679" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C679" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D679" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E679" s="27" t="s">
         <v>74</v>
@@ -62224,16 +62221,16 @@
     </row>
     <row r="680" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B680" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C680" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D680" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E680" s="5" t="s">
         <v>38</v>
@@ -62313,16 +62310,16 @@
     </row>
     <row r="681" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B681" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C681" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D681" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E681" s="5" t="s">
         <v>39</v>
